--- a/test_data/Stylish_TestCase.xlsx
+++ b/test_data/Stylish_TestCase.xlsx
@@ -4,7 +4,7 @@
   <fileVersion rupBuild="9303" lowestEdited="5" lastEdited="5" appName="xl"/>
   <workbookPr/>
   <bookViews>
-    <workbookView xWindow="480" yWindow="60" windowWidth="18195" windowHeight="8505" activeTab="5"/>
+    <workbookView xWindow="480" yWindow="60" windowWidth="18195" windowHeight="8505" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet r:id="rId1" sheetId="1" name="Create Product Success"/>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1039" uniqueCount="113">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1039" uniqueCount="114">
   <si>
     <t>Receiver</t>
   </si>
@@ -359,6 +359,9 @@
   </si>
   <si>
     <t>S,M,L,XL,F</t>
+  </si>
+  <si>
+    <t>連身裙_Kathy</t>
   </si>
 </sst>
 </file>
@@ -408,13 +411,13 @@
     <font>
       <sz val="11"/>
       <color rgb="FF000000"/>
-      <name val="Arial"/>
+      <name val="Monospace"/>
       <family val="2"/>
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF000000"/>
-      <name val="Monospace"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
       <family val="2"/>
     </font>
   </fonts>
@@ -475,7 +478,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="27">
+  <cellXfs count="29">
     <xf xfId="0" numFmtId="0" borderId="0" fontId="0" fillId="0"/>
     <xf xfId="0" numFmtId="0" borderId="1" applyBorder="1" fontId="1" applyFont="1" fillId="0" applyAlignment="1">
       <alignment horizontal="left"/>
@@ -517,13 +520,13 @@
       <alignment horizontal="left"/>
     </xf>
     <xf xfId="0" numFmtId="0" borderId="0" fontId="0" fillId="0" applyAlignment="1">
-      <alignment horizontal="general"/>
+      <alignment horizontal="left"/>
     </xf>
     <xf xfId="0" numFmtId="49" applyNumberFormat="1" borderId="0" fontId="0" fillId="0" applyAlignment="1">
-      <alignment horizontal="general"/>
+      <alignment horizontal="left"/>
     </xf>
     <xf xfId="0" numFmtId="3" applyNumberFormat="1" borderId="0" fontId="0" fillId="0" applyAlignment="1">
-      <alignment horizontal="general"/>
+      <alignment horizontal="left"/>
     </xf>
     <xf xfId="0" numFmtId="0" borderId="2" applyBorder="1" fontId="1" applyFont="1" fillId="4" applyFill="1" applyAlignment="1">
       <alignment horizontal="left"/>
@@ -540,10 +543,10 @@
     <xf xfId="0" numFmtId="3" applyNumberFormat="1" borderId="1" applyBorder="1" fontId="1" applyFont="1" fillId="0" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf xfId="0" numFmtId="0" borderId="2" applyBorder="1" fontId="6" applyFont="1" fillId="3" applyFill="1" applyAlignment="1">
+    <xf xfId="0" numFmtId="0" borderId="2" applyBorder="1" fontId="1" applyFont="1" fillId="3" applyFill="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf xfId="0" numFmtId="0" borderId="2" applyBorder="1" fontId="7" applyFont="1" fillId="3" applyFill="1" applyAlignment="1">
+    <xf xfId="0" numFmtId="0" borderId="2" applyBorder="1" fontId="6" applyFont="1" fillId="3" applyFill="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
     <xf xfId="0" numFmtId="3" applyNumberFormat="1" borderId="2" applyBorder="1" fontId="1" applyFont="1" fillId="2" applyFill="1" applyAlignment="1">
@@ -551,6 +554,12 @@
     </xf>
     <xf xfId="0" numFmtId="3" applyNumberFormat="1" borderId="0" fontId="0" fillId="0" applyAlignment="1">
       <alignment horizontal="right"/>
+    </xf>
+    <xf xfId="0" numFmtId="0" borderId="1" applyBorder="1" fontId="7" applyFont="1" fillId="0" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf xfId="0" numFmtId="0" borderId="0" fontId="0" fillId="0" applyAlignment="1">
+      <alignment horizontal="general"/>
     </xf>
     <xf xfId="0" numFmtId="0" borderId="0" fontId="0" fillId="0" applyAlignment="1">
       <alignment horizontal="general"/>
@@ -876,11 +885,11 @@
     <col min="11" max="11" style="14" width="12.43357142857143" customWidth="1" bestFit="1"/>
     <col min="12" max="12" style="14" width="12.43357142857143" customWidth="1" bestFit="1"/>
     <col min="13" max="13" style="14" width="12.43357142857143" customWidth="1" bestFit="1"/>
-    <col min="14" max="14" style="14" width="12.43357142857143" customWidth="1" bestFit="1"/>
+    <col min="14" max="14" style="28" width="12.43357142857143" customWidth="1" bestFit="1"/>
     <col min="15" max="15" style="14" width="12.43357142857143" customWidth="1" bestFit="1"/>
   </cols>
   <sheetData>
-    <row x14ac:dyDescent="0.25" r="1" customHeight="1" ht="17.25">
+    <row x14ac:dyDescent="0.25" r="1" customHeight="1" ht="18.75">
       <c r="A1" s="1" t="s">
         <v>42</v>
       </c>
@@ -925,12 +934,12 @@
       </c>
       <c r="O1" s="26"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="2" customHeight="1" ht="17.25">
+    <row x14ac:dyDescent="0.25" r="2" customHeight="1" ht="21.75">
       <c r="A2" s="1" t="s">
         <v>97</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>105</v>
+        <v>113</v>
       </c>
       <c r="C2" s="1" t="s">
         <v>58</v>
@@ -972,7 +981,7 @@
         <v>107</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="3" customHeight="1" ht="17.25">
+    <row x14ac:dyDescent="0.25" r="3" customHeight="1" ht="21.75">
       <c r="A3" s="1" t="s">
         <v>100</v>
       </c>
@@ -1017,7 +1026,7 @@
         <v>107</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="4" customHeight="1" ht="17.25">
+    <row x14ac:dyDescent="0.25" r="4" customHeight="1" ht="21.75">
       <c r="A4" s="1" t="s">
         <v>103</v>
       </c>
@@ -1057,7 +1066,7 @@
       <c r="M4" s="1" t="s">
         <v>66</v>
       </c>
-      <c r="N4" s="26"/>
+      <c r="N4" s="27"/>
       <c r="O4" s="1" t="s">
         <v>107</v>
       </c>
@@ -1091,11 +1100,11 @@
     <col min="11" max="11" style="14" width="12.43357142857143" customWidth="1" bestFit="1"/>
     <col min="12" max="12" style="14" width="12.43357142857143" customWidth="1" bestFit="1"/>
     <col min="13" max="13" style="14" width="12.43357142857143" customWidth="1" bestFit="1"/>
-    <col min="14" max="14" style="14" width="12.43357142857143" customWidth="1" bestFit="1"/>
+    <col min="14" max="14" style="28" width="12.43357142857143" customWidth="1" bestFit="1"/>
     <col min="15" max="15" style="14" width="12.43357142857143" customWidth="1" bestFit="1"/>
   </cols>
   <sheetData>
-    <row x14ac:dyDescent="0.25" r="1" customHeight="1" ht="17.25">
+    <row x14ac:dyDescent="0.25" r="1" customHeight="1" ht="18.75">
       <c r="A1" s="1" t="s">
         <v>42</v>
       </c>
@@ -1140,7 +1149,7 @@
       </c>
       <c r="O1" s="26"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="2" customHeight="1" ht="17.25">
+    <row x14ac:dyDescent="0.25" r="2" customHeight="1" ht="21.75">
       <c r="A2" s="1" t="s">
         <v>57</v>
       </c>
@@ -1187,7 +1196,7 @@
         <v>107</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="3" customHeight="1" ht="17.25">
+    <row x14ac:dyDescent="0.25" r="3" customHeight="1" ht="18.75">
       <c r="A3" s="1" t="s">
         <v>68</v>
       </c>
@@ -1232,7 +1241,7 @@
         <v>107</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="4" customHeight="1" ht="17.25">
+    <row x14ac:dyDescent="0.25" r="4" customHeight="1" ht="18.75">
       <c r="A4" s="1" t="s">
         <v>70</v>
       </c>
@@ -1272,7 +1281,7 @@
       <c r="M4" s="1" t="s">
         <v>66</v>
       </c>
-      <c r="N4" s="26"/>
+      <c r="N4" s="27"/>
       <c r="O4" s="1" t="s">
         <v>107</v>
       </c>
@@ -1289,14 +1298,14 @@
   </sheetPr>
   <dimension ref="A1:O21"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView workbookViewId="0" tabSelected="1"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" style="14" width="12.43357142857143" customWidth="1" bestFit="1"/>
     <col min="2" max="2" style="14" width="12.43357142857143" customWidth="1" bestFit="1"/>
     <col min="3" max="3" style="14" width="12.43357142857143" customWidth="1" bestFit="1"/>
-    <col min="4" max="4" style="16" width="12.43357142857143" customWidth="1" bestFit="1"/>
+    <col min="4" max="4" style="25" width="12.43357142857143" customWidth="1" bestFit="1"/>
     <col min="5" max="5" style="14" width="12.43357142857143" customWidth="1" bestFit="1"/>
     <col min="6" max="6" style="14" width="12.43357142857143" customWidth="1" bestFit="1"/>
     <col min="7" max="7" style="14" width="14.147857142857141" customWidth="1" bestFit="1"/>
@@ -3593,7 +3602,7 @@
   </sheetPr>
   <dimension ref="A1:I18"/>
   <sheetViews>
-    <sheetView workbookViewId="0" tabSelected="1"/>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>

--- a/test_data/Stylish_TestCase.xlsx
+++ b/test_data/Stylish_TestCase.xlsx
@@ -4,7 +4,7 @@
   <fileVersion rupBuild="9303" lowestEdited="5" lastEdited="5" appName="xl"/>
   <workbookPr/>
   <bookViews>
-    <workbookView xWindow="480" yWindow="60" windowWidth="18195" windowHeight="8505" activeTab="2"/>
+    <workbookView xWindow="480" yWindow="60" windowWidth="18195" windowHeight="8505" activeTab="6"/>
   </bookViews>
   <sheets>
     <sheet r:id="rId1" sheetId="1" name="Create Product Success"/>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1039" uniqueCount="114">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1034" uniqueCount="123">
   <si>
     <t>Receiver</t>
   </si>
@@ -49,90 +49,120 @@
     <t>list</t>
   </si>
   <si>
+    <t>Error Msg</t>
+  </si>
+  <si>
+    <t>abc@abc.com</t>
+  </si>
+  <si>
+    <t>0912345678</t>
+  </si>
+  <si>
+    <t>台北市</t>
+  </si>
+  <si>
+    <t>anytime</t>
+  </si>
+  <si>
+    <t>Receiver Name is required.</t>
+  </si>
+  <si>
+    <t>101 chars</t>
+  </si>
+  <si>
+    <t>Receiver name cannot more than 100 characters.</t>
+  </si>
+  <si>
+    <t>陳大文</t>
+  </si>
+  <si>
+    <t>Email is required.</t>
+  </si>
+  <si>
+    <t>abc</t>
+  </si>
+  <si>
+    <t>Email format is not correct.</t>
+  </si>
+  <si>
+    <t>51 chars</t>
+  </si>
+  <si>
+    <t>Receiver email cannot more than 50 characters.</t>
+  </si>
+  <si>
+    <t>Mobile is required.</t>
+  </si>
+  <si>
+    <t>091234567</t>
+  </si>
+  <si>
+    <t>Mobile format is not correct. It should be 10 digits.</t>
+  </si>
+  <si>
+    <t>09123456789</t>
+  </si>
+  <si>
+    <t>Address is required.</t>
+  </si>
+  <si>
+    <t>256 chars</t>
+  </si>
+  <si>
+    <t>Receiver address cannot more than 255 characters.</t>
+  </si>
+  <si>
+    <t>Deliver Time is required.</t>
+  </si>
+  <si>
+    <t>Invalid</t>
+  </si>
+  <si>
+    <t>Deliver Time can be 'anytime', 'morning' or 'afternoon' Only</t>
+  </si>
+  <si>
+    <t>Subtotal is incorrect</t>
+  </si>
+  <si>
+    <t>Freight is required.</t>
+  </si>
+  <si>
+    <t>Total is incorrect</t>
+  </si>
+  <si>
+    <t>Order List is required.</t>
+  </si>
+  <si>
+    <t>Credit Card No</t>
+  </si>
+  <si>
+    <t>Expiry Date</t>
+  </si>
+  <si>
+    <t>Security Code</t>
+  </si>
+  <si>
     <t>Alert Msg</t>
   </si>
   <si>
-    <t>abc@abc.com</t>
-  </si>
-  <si>
-    <t>0912345678</t>
-  </si>
-  <si>
-    <t>台北市</t>
-  </si>
-  <si>
     <t>Anytime</t>
   </si>
   <si>
-    <t>1 item</t>
+    <t>4242 4242 4242 4242</t>
+  </si>
+  <si>
+    <t>12/69</t>
+  </si>
+  <si>
+    <t>123</t>
   </si>
   <si>
     <t>請填寫完整訂購資料</t>
   </si>
   <si>
-    <t>101 chars</t>
-  </si>
-  <si>
-    <t>Receiver name cannot more than 100 characters.</t>
-  </si>
-  <si>
-    <t>陳大文</t>
-  </si>
-  <si>
-    <t>abc</t>
-  </si>
-  <si>
-    <t>Email format is not correct.</t>
-  </si>
-  <si>
-    <t>51 chars</t>
-  </si>
-  <si>
-    <t>Receiver email cannot more than 50 characters.</t>
-  </si>
-  <si>
-    <t>091234567</t>
-  </si>
-  <si>
-    <t>Mobile format is not correct. It should be 10 digits.</t>
-  </si>
-  <si>
-    <t>09123456789</t>
-  </si>
-  <si>
-    <t>256 chars</t>
-  </si>
-  <si>
-    <t>Receiver address cannot more than 255 characters.</t>
-  </si>
-  <si>
-    <t>Invalid</t>
-  </si>
-  <si>
     <t>付款資料輸入有誤</t>
   </si>
   <si>
-    <t>0 item</t>
-  </si>
-  <si>
-    <t>Credit Card No</t>
-  </si>
-  <si>
-    <t>Expiry Date</t>
-  </si>
-  <si>
-    <t>Security Code</t>
-  </si>
-  <si>
-    <t>4242 4242 4242 4242</t>
-  </si>
-  <si>
-    <t>12/69</t>
-  </si>
-  <si>
-    <t>123</t>
-  </si>
-  <si>
     <t>1234 1234 1234 1234</t>
   </si>
   <si>
@@ -188,9 +218,6 @@
   </si>
   <si>
     <t>Other Image 2</t>
-  </si>
-  <si>
-    <t>Error Msg</t>
   </si>
   <si>
     <t>women</t>
@@ -416,7 +443,7 @@
     </font>
     <font>
       <sz val="11"/>
-      <color theme="1"/>
+      <color rgb="FF000000"/>
       <name val="Calibri"/>
       <family val="2"/>
     </font>
@@ -478,7 +505,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="29">
+  <cellXfs count="30">
     <xf xfId="0" numFmtId="0" borderId="0" fontId="0" fillId="0"/>
     <xf xfId="0" numFmtId="0" borderId="1" applyBorder="1" fontId="1" applyFont="1" fillId="0" applyAlignment="1">
       <alignment horizontal="left"/>
@@ -513,10 +540,13 @@
     <xf xfId="0" numFmtId="3" applyNumberFormat="1" borderId="2" applyBorder="1" fontId="2" applyFont="1" fillId="3" applyFill="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf xfId="0" numFmtId="0" borderId="2" applyBorder="1" fontId="2" applyFont="1" fillId="3" applyFill="1" applyAlignment="1">
+    <xf xfId="0" numFmtId="3" applyNumberFormat="1" borderId="2" applyBorder="1" fontId="2" applyFont="1" fillId="3" applyFill="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf xfId="0" numFmtId="3" applyNumberFormat="1" borderId="2" applyBorder="1" fontId="2" applyFont="1" fillId="3" applyFill="1" applyAlignment="1">
+    <xf xfId="0" numFmtId="0" borderId="0" fontId="0" fillId="0" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf xfId="0" numFmtId="0" borderId="2" applyBorder="1" fontId="2" applyFont="1" fillId="3" applyFill="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
     <xf xfId="0" numFmtId="0" borderId="0" fontId="0" fillId="0" applyAlignment="1">
@@ -872,203 +902,203 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" style="14" width="12.43357142857143" customWidth="1" bestFit="1"/>
-    <col min="2" max="2" style="14" width="12.43357142857143" customWidth="1" bestFit="1"/>
-    <col min="3" max="3" style="14" width="12.43357142857143" customWidth="1" bestFit="1"/>
-    <col min="4" max="4" style="25" width="12.43357142857143" customWidth="1" bestFit="1"/>
-    <col min="5" max="5" style="14" width="12.43357142857143" customWidth="1" bestFit="1"/>
-    <col min="6" max="6" style="14" width="12.43357142857143" customWidth="1" bestFit="1"/>
-    <col min="7" max="7" style="14" width="13.290714285714287" customWidth="1" bestFit="1"/>
-    <col min="8" max="8" style="14" width="12.43357142857143" customWidth="1" bestFit="1"/>
-    <col min="9" max="9" style="14" width="12.43357142857143" customWidth="1" bestFit="1"/>
-    <col min="10" max="10" style="14" width="12.43357142857143" customWidth="1" bestFit="1"/>
-    <col min="11" max="11" style="14" width="12.43357142857143" customWidth="1" bestFit="1"/>
-    <col min="12" max="12" style="14" width="12.43357142857143" customWidth="1" bestFit="1"/>
-    <col min="13" max="13" style="14" width="12.43357142857143" customWidth="1" bestFit="1"/>
-    <col min="14" max="14" style="28" width="12.43357142857143" customWidth="1" bestFit="1"/>
-    <col min="15" max="15" style="14" width="12.43357142857143" customWidth="1" bestFit="1"/>
+    <col min="1" max="1" style="15" width="12.43357142857143" customWidth="1" bestFit="1"/>
+    <col min="2" max="2" style="15" width="12.43357142857143" customWidth="1" bestFit="1"/>
+    <col min="3" max="3" style="15" width="12.43357142857143" customWidth="1" bestFit="1"/>
+    <col min="4" max="4" style="26" width="12.43357142857143" customWidth="1" bestFit="1"/>
+    <col min="5" max="5" style="15" width="12.43357142857143" customWidth="1" bestFit="1"/>
+    <col min="6" max="6" style="15" width="12.43357142857143" customWidth="1" bestFit="1"/>
+    <col min="7" max="7" style="15" width="13.290714285714287" customWidth="1" bestFit="1"/>
+    <col min="8" max="8" style="15" width="12.43357142857143" customWidth="1" bestFit="1"/>
+    <col min="9" max="9" style="15" width="12.43357142857143" customWidth="1" bestFit="1"/>
+    <col min="10" max="10" style="15" width="12.43357142857143" customWidth="1" bestFit="1"/>
+    <col min="11" max="11" style="15" width="12.43357142857143" customWidth="1" bestFit="1"/>
+    <col min="12" max="12" style="15" width="12.43357142857143" customWidth="1" bestFit="1"/>
+    <col min="13" max="13" style="15" width="12.43357142857143" customWidth="1" bestFit="1"/>
+    <col min="14" max="14" style="29" width="12.43357142857143" customWidth="1" bestFit="1"/>
+    <col min="15" max="15" style="15" width="12.43357142857143" customWidth="1" bestFit="1"/>
   </cols>
   <sheetData>
     <row x14ac:dyDescent="0.25" r="1" customHeight="1" ht="18.75">
       <c r="A1" s="1" t="s">
-        <v>42</v>
+        <v>52</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>43</v>
+        <v>53</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>44</v>
+        <v>54</v>
       </c>
       <c r="D1" s="3" t="s">
-        <v>45</v>
+        <v>55</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>46</v>
+        <v>56</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>47</v>
+        <v>57</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>48</v>
+        <v>58</v>
       </c>
       <c r="H1" s="1" t="s">
-        <v>49</v>
+        <v>59</v>
       </c>
       <c r="I1" s="1" t="s">
-        <v>96</v>
+        <v>105</v>
       </c>
       <c r="J1" s="1" t="s">
-        <v>51</v>
+        <v>61</v>
       </c>
       <c r="K1" s="1" t="s">
-        <v>52</v>
+        <v>62</v>
       </c>
       <c r="L1" s="1" t="s">
-        <v>53</v>
+        <v>63</v>
       </c>
       <c r="M1" s="1" t="s">
-        <v>54</v>
+        <v>64</v>
       </c>
       <c r="N1" s="1" t="s">
-        <v>55</v>
-      </c>
-      <c r="O1" s="26"/>
+        <v>65</v>
+      </c>
+      <c r="O1" s="27"/>
     </row>
     <row x14ac:dyDescent="0.25" r="2" customHeight="1" ht="21.75">
       <c r="A2" s="1" t="s">
-        <v>97</v>
+        <v>106</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>113</v>
+        <v>122</v>
       </c>
       <c r="C2" s="1" t="s">
-        <v>58</v>
-      </c>
-      <c r="D2" s="21">
+        <v>67</v>
+      </c>
+      <c r="D2" s="22">
         <v>100</v>
       </c>
       <c r="E2" s="1" t="s">
-        <v>106</v>
+        <v>115</v>
       </c>
       <c r="F2" s="1" t="s">
-        <v>60</v>
+        <v>69</v>
       </c>
       <c r="G2" s="1" t="s">
-        <v>61</v>
+        <v>70</v>
       </c>
       <c r="H2" s="1" t="s">
-        <v>62</v>
+        <v>71</v>
       </c>
       <c r="I2" s="1" t="s">
-        <v>98</v>
+        <v>107</v>
       </c>
       <c r="J2" s="1" t="s">
-        <v>99</v>
+        <v>108</v>
       </c>
       <c r="K2" s="1" t="s">
-        <v>65</v>
+        <v>74</v>
       </c>
       <c r="L2" s="1" t="s">
-        <v>66</v>
+        <v>75</v>
       </c>
       <c r="M2" s="1" t="s">
-        <v>66</v>
+        <v>75</v>
       </c>
       <c r="N2" s="1" t="s">
-        <v>66</v>
+        <v>75</v>
       </c>
       <c r="O2" s="1" t="s">
-        <v>107</v>
+        <v>116</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="3" customHeight="1" ht="21.75">
       <c r="A3" s="1" t="s">
-        <v>100</v>
+        <v>109</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>108</v>
+        <v>117</v>
       </c>
       <c r="C3" s="1" t="s">
-        <v>108</v>
-      </c>
-      <c r="D3" s="21">
+        <v>117</v>
+      </c>
+      <c r="D3" s="22">
         <v>0</v>
       </c>
       <c r="E3" s="1" t="s">
-        <v>108</v>
+        <v>117</v>
       </c>
       <c r="F3" s="1" t="s">
-        <v>108</v>
+        <v>117</v>
       </c>
       <c r="G3" s="1" t="s">
-        <v>108</v>
+        <v>117</v>
       </c>
       <c r="H3" s="1" t="s">
-        <v>108</v>
+        <v>117</v>
       </c>
       <c r="I3" s="1" t="s">
-        <v>101</v>
+        <v>110</v>
       </c>
       <c r="J3" s="1" t="s">
-        <v>102</v>
+        <v>111</v>
       </c>
       <c r="K3" s="1" t="s">
-        <v>108</v>
+        <v>117</v>
       </c>
       <c r="L3" s="1" t="s">
-        <v>66</v>
-      </c>
-      <c r="M3" s="26"/>
+        <v>75</v>
+      </c>
+      <c r="M3" s="27"/>
       <c r="N3" s="1" t="s">
-        <v>66</v>
+        <v>75</v>
       </c>
       <c r="O3" s="1" t="s">
-        <v>107</v>
+        <v>116</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="4" customHeight="1" ht="21.75">
       <c r="A4" s="1" t="s">
-        <v>103</v>
+        <v>112</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>109</v>
+        <v>118</v>
       </c>
       <c r="C4" s="1" t="s">
-        <v>109</v>
-      </c>
-      <c r="D4" s="21">
+        <v>118</v>
+      </c>
+      <c r="D4" s="22">
         <v>99999</v>
       </c>
       <c r="E4" s="1" t="s">
-        <v>110</v>
+        <v>119</v>
       </c>
       <c r="F4" s="1" t="s">
-        <v>110</v>
+        <v>119</v>
       </c>
       <c r="G4" s="1" t="s">
-        <v>110</v>
+        <v>119</v>
       </c>
       <c r="H4" s="1" t="s">
-        <v>110</v>
+        <v>119</v>
       </c>
       <c r="I4" s="1" t="s">
-        <v>104</v>
+        <v>113</v>
       </c>
       <c r="J4" s="1" t="s">
-        <v>104</v>
+        <v>113</v>
       </c>
       <c r="K4" s="1" t="s">
-        <v>65</v>
+        <v>74</v>
       </c>
       <c r="L4" s="1" t="s">
-        <v>66</v>
+        <v>75</v>
       </c>
       <c r="M4" s="1" t="s">
-        <v>66</v>
-      </c>
-      <c r="N4" s="27"/>
+        <v>75</v>
+      </c>
+      <c r="N4" s="28"/>
       <c r="O4" s="1" t="s">
-        <v>107</v>
+        <v>116</v>
       </c>
     </row>
   </sheetData>
@@ -1087,203 +1117,203 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" style="14" width="12.43357142857143" customWidth="1" bestFit="1"/>
-    <col min="2" max="2" style="14" width="12.43357142857143" customWidth="1" bestFit="1"/>
-    <col min="3" max="3" style="14" width="12.43357142857143" customWidth="1" bestFit="1"/>
-    <col min="4" max="4" style="25" width="12.43357142857143" customWidth="1" bestFit="1"/>
-    <col min="5" max="5" style="14" width="12.43357142857143" customWidth="1" bestFit="1"/>
-    <col min="6" max="6" style="14" width="12.43357142857143" customWidth="1" bestFit="1"/>
-    <col min="7" max="7" style="14" width="13.290714285714287" customWidth="1" bestFit="1"/>
-    <col min="8" max="8" style="14" width="12.43357142857143" customWidth="1" bestFit="1"/>
-    <col min="9" max="9" style="16" width="12.43357142857143" customWidth="1" bestFit="1"/>
-    <col min="10" max="10" style="14" width="12.43357142857143" customWidth="1" bestFit="1"/>
-    <col min="11" max="11" style="14" width="12.43357142857143" customWidth="1" bestFit="1"/>
-    <col min="12" max="12" style="14" width="12.43357142857143" customWidth="1" bestFit="1"/>
-    <col min="13" max="13" style="14" width="12.43357142857143" customWidth="1" bestFit="1"/>
-    <col min="14" max="14" style="28" width="12.43357142857143" customWidth="1" bestFit="1"/>
-    <col min="15" max="15" style="14" width="12.43357142857143" customWidth="1" bestFit="1"/>
+    <col min="1" max="1" style="15" width="12.43357142857143" customWidth="1" bestFit="1"/>
+    <col min="2" max="2" style="15" width="12.43357142857143" customWidth="1" bestFit="1"/>
+    <col min="3" max="3" style="15" width="12.43357142857143" customWidth="1" bestFit="1"/>
+    <col min="4" max="4" style="26" width="12.43357142857143" customWidth="1" bestFit="1"/>
+    <col min="5" max="5" style="15" width="12.43357142857143" customWidth="1" bestFit="1"/>
+    <col min="6" max="6" style="15" width="12.43357142857143" customWidth="1" bestFit="1"/>
+    <col min="7" max="7" style="15" width="13.290714285714287" customWidth="1" bestFit="1"/>
+    <col min="8" max="8" style="15" width="12.43357142857143" customWidth="1" bestFit="1"/>
+    <col min="9" max="9" style="17" width="12.43357142857143" customWidth="1" bestFit="1"/>
+    <col min="10" max="10" style="15" width="12.43357142857143" customWidth="1" bestFit="1"/>
+    <col min="11" max="11" style="15" width="12.43357142857143" customWidth="1" bestFit="1"/>
+    <col min="12" max="12" style="15" width="12.43357142857143" customWidth="1" bestFit="1"/>
+    <col min="13" max="13" style="15" width="12.43357142857143" customWidth="1" bestFit="1"/>
+    <col min="14" max="14" style="29" width="12.43357142857143" customWidth="1" bestFit="1"/>
+    <col min="15" max="15" style="15" width="12.43357142857143" customWidth="1" bestFit="1"/>
   </cols>
   <sheetData>
     <row x14ac:dyDescent="0.25" r="1" customHeight="1" ht="18.75">
       <c r="A1" s="1" t="s">
-        <v>42</v>
+        <v>52</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>43</v>
+        <v>53</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>44</v>
+        <v>54</v>
       </c>
       <c r="D1" s="3" t="s">
-        <v>45</v>
+        <v>55</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>46</v>
+        <v>56</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>47</v>
+        <v>57</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>48</v>
+        <v>58</v>
       </c>
       <c r="H1" s="1" t="s">
-        <v>49</v>
+        <v>59</v>
       </c>
       <c r="I1" s="3" t="s">
-        <v>50</v>
+        <v>60</v>
       </c>
       <c r="J1" s="1" t="s">
-        <v>51</v>
+        <v>61</v>
       </c>
       <c r="K1" s="1" t="s">
-        <v>52</v>
+        <v>62</v>
       </c>
       <c r="L1" s="1" t="s">
-        <v>53</v>
+        <v>63</v>
       </c>
       <c r="M1" s="1" t="s">
-        <v>54</v>
+        <v>64</v>
       </c>
       <c r="N1" s="1" t="s">
-        <v>55</v>
-      </c>
-      <c r="O1" s="26"/>
+        <v>65</v>
+      </c>
+      <c r="O1" s="27"/>
     </row>
     <row x14ac:dyDescent="0.25" r="2" customHeight="1" ht="21.75">
       <c r="A2" s="1" t="s">
-        <v>57</v>
+        <v>66</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>105</v>
+        <v>114</v>
       </c>
       <c r="C2" s="1" t="s">
-        <v>58</v>
-      </c>
-      <c r="D2" s="21">
+        <v>67</v>
+      </c>
+      <c r="D2" s="22">
         <v>100</v>
       </c>
       <c r="E2" s="1" t="s">
-        <v>106</v>
+        <v>115</v>
       </c>
       <c r="F2" s="1" t="s">
-        <v>60</v>
+        <v>69</v>
       </c>
       <c r="G2" s="1" t="s">
-        <v>61</v>
+        <v>70</v>
       </c>
       <c r="H2" s="1" t="s">
-        <v>62</v>
-      </c>
-      <c r="I2" s="21">
+        <v>71</v>
+      </c>
+      <c r="I2" s="22">
         <v>1</v>
       </c>
       <c r="J2" s="1" t="s">
-        <v>99</v>
+        <v>108</v>
       </c>
       <c r="K2" s="1" t="s">
-        <v>65</v>
+        <v>74</v>
       </c>
       <c r="L2" s="1" t="s">
-        <v>66</v>
+        <v>75</v>
       </c>
       <c r="M2" s="1" t="s">
-        <v>66</v>
+        <v>75</v>
       </c>
       <c r="N2" s="1" t="s">
-        <v>66</v>
+        <v>75</v>
       </c>
       <c r="O2" s="1" t="s">
-        <v>107</v>
+        <v>116</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="3" customHeight="1" ht="18.75">
       <c r="A3" s="1" t="s">
-        <v>68</v>
+        <v>77</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>108</v>
+        <v>117</v>
       </c>
       <c r="C3" s="1" t="s">
-        <v>108</v>
-      </c>
-      <c r="D3" s="21">
+        <v>117</v>
+      </c>
+      <c r="D3" s="22">
         <v>0</v>
       </c>
       <c r="E3" s="1" t="s">
-        <v>108</v>
+        <v>117</v>
       </c>
       <c r="F3" s="1" t="s">
-        <v>108</v>
+        <v>117</v>
       </c>
       <c r="G3" s="1" t="s">
-        <v>108</v>
+        <v>117</v>
       </c>
       <c r="H3" s="1" t="s">
-        <v>108</v>
+        <v>117</v>
       </c>
       <c r="I3" s="3" t="s">
-        <v>63</v>
+        <v>72</v>
       </c>
       <c r="J3" s="1" t="s">
-        <v>64</v>
+        <v>73</v>
       </c>
       <c r="K3" s="1" t="s">
-        <v>108</v>
+        <v>117</v>
       </c>
       <c r="L3" s="1" t="s">
-        <v>66</v>
-      </c>
-      <c r="M3" s="26"/>
+        <v>75</v>
+      </c>
+      <c r="M3" s="27"/>
       <c r="N3" s="1" t="s">
-        <v>66</v>
+        <v>75</v>
       </c>
       <c r="O3" s="1" t="s">
-        <v>107</v>
+        <v>116</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="4" customHeight="1" ht="18.75">
       <c r="A4" s="1" t="s">
-        <v>70</v>
+        <v>79</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>109</v>
+        <v>118</v>
       </c>
       <c r="C4" s="1" t="s">
-        <v>109</v>
-      </c>
-      <c r="D4" s="21">
+        <v>118</v>
+      </c>
+      <c r="D4" s="22">
         <v>99999</v>
       </c>
       <c r="E4" s="1" t="s">
-        <v>110</v>
+        <v>119</v>
       </c>
       <c r="F4" s="1" t="s">
-        <v>110</v>
+        <v>119</v>
       </c>
       <c r="G4" s="1" t="s">
-        <v>110</v>
+        <v>119</v>
       </c>
       <c r="H4" s="1" t="s">
-        <v>110</v>
+        <v>119</v>
       </c>
       <c r="I4" s="3" t="s">
-        <v>111</v>
+        <v>120</v>
       </c>
       <c r="J4" s="1" t="s">
-        <v>112</v>
+        <v>121</v>
       </c>
       <c r="K4" s="1" t="s">
-        <v>65</v>
+        <v>74</v>
       </c>
       <c r="L4" s="1" t="s">
-        <v>66</v>
+        <v>75</v>
       </c>
       <c r="M4" s="1" t="s">
-        <v>66</v>
-      </c>
-      <c r="N4" s="27"/>
+        <v>75</v>
+      </c>
+      <c r="N4" s="28"/>
       <c r="O4" s="1" t="s">
-        <v>107</v>
+        <v>116</v>
       </c>
     </row>
   </sheetData>
@@ -1298,986 +1328,986 @@
   </sheetPr>
   <dimension ref="A1:O21"/>
   <sheetViews>
-    <sheetView workbookViewId="0" tabSelected="1"/>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" style="14" width="12.43357142857143" customWidth="1" bestFit="1"/>
-    <col min="2" max="2" style="14" width="12.43357142857143" customWidth="1" bestFit="1"/>
-    <col min="3" max="3" style="14" width="12.43357142857143" customWidth="1" bestFit="1"/>
-    <col min="4" max="4" style="25" width="12.43357142857143" customWidth="1" bestFit="1"/>
-    <col min="5" max="5" style="14" width="12.43357142857143" customWidth="1" bestFit="1"/>
-    <col min="6" max="6" style="14" width="12.43357142857143" customWidth="1" bestFit="1"/>
-    <col min="7" max="7" style="14" width="14.147857142857141" customWidth="1" bestFit="1"/>
-    <col min="8" max="8" style="14" width="12.43357142857143" customWidth="1" bestFit="1"/>
-    <col min="9" max="9" style="14" width="12.43357142857143" customWidth="1" bestFit="1"/>
-    <col min="10" max="10" style="14" width="12.43357142857143" customWidth="1" bestFit="1"/>
-    <col min="11" max="11" style="14" width="12.43357142857143" customWidth="1" bestFit="1"/>
-    <col min="12" max="12" style="14" width="12.43357142857143" customWidth="1" bestFit="1"/>
-    <col min="13" max="13" style="14" width="12.43357142857143" customWidth="1" bestFit="1"/>
-    <col min="14" max="14" style="14" width="12.43357142857143" customWidth="1" bestFit="1"/>
-    <col min="15" max="15" style="14" width="31.719285714285714" customWidth="1" bestFit="1"/>
+    <col min="1" max="1" style="15" width="12.43357142857143" customWidth="1" bestFit="1"/>
+    <col min="2" max="2" style="15" width="12.43357142857143" customWidth="1" bestFit="1"/>
+    <col min="3" max="3" style="15" width="12.43357142857143" customWidth="1" bestFit="1"/>
+    <col min="4" max="4" style="26" width="12.43357142857143" customWidth="1" bestFit="1"/>
+    <col min="5" max="5" style="15" width="12.43357142857143" customWidth="1" bestFit="1"/>
+    <col min="6" max="6" style="15" width="12.43357142857143" customWidth="1" bestFit="1"/>
+    <col min="7" max="7" style="15" width="14.147857142857141" customWidth="1" bestFit="1"/>
+    <col min="8" max="8" style="15" width="12.43357142857143" customWidth="1" bestFit="1"/>
+    <col min="9" max="9" style="15" width="12.43357142857143" customWidth="1" bestFit="1"/>
+    <col min="10" max="10" style="15" width="12.43357142857143" customWidth="1" bestFit="1"/>
+    <col min="11" max="11" style="15" width="12.43357142857143" customWidth="1" bestFit="1"/>
+    <col min="12" max="12" style="15" width="12.43357142857143" customWidth="1" bestFit="1"/>
+    <col min="13" max="13" style="15" width="12.43357142857143" customWidth="1" bestFit="1"/>
+    <col min="14" max="14" style="15" width="12.43357142857143" customWidth="1" bestFit="1"/>
+    <col min="15" max="15" style="15" width="31.719285714285714" customWidth="1" bestFit="1"/>
   </cols>
   <sheetData>
     <row x14ac:dyDescent="0.25" r="1" customHeight="1" ht="17.25">
-      <c r="A1" s="19" t="s">
-        <v>42</v>
-      </c>
-      <c r="B1" s="19" t="s">
-        <v>43</v>
-      </c>
-      <c r="C1" s="19" t="s">
-        <v>44</v>
-      </c>
-      <c r="D1" s="20" t="s">
-        <v>45</v>
-      </c>
-      <c r="E1" s="19" t="s">
-        <v>46</v>
-      </c>
-      <c r="F1" s="19" t="s">
-        <v>47</v>
-      </c>
-      <c r="G1" s="19" t="s">
-        <v>48</v>
-      </c>
-      <c r="H1" s="19" t="s">
-        <v>49</v>
-      </c>
-      <c r="I1" s="19" t="s">
-        <v>96</v>
-      </c>
-      <c r="J1" s="19" t="s">
-        <v>51</v>
-      </c>
-      <c r="K1" s="19" t="s">
+      <c r="A1" s="20" t="s">
         <v>52</v>
       </c>
-      <c r="L1" s="19" t="s">
+      <c r="B1" s="20" t="s">
         <v>53</v>
       </c>
-      <c r="M1" s="19" t="s">
+      <c r="C1" s="20" t="s">
         <v>54</v>
       </c>
-      <c r="N1" s="19" t="s">
+      <c r="D1" s="21" t="s">
         <v>55</v>
       </c>
+      <c r="E1" s="20" t="s">
+        <v>56</v>
+      </c>
+      <c r="F1" s="20" t="s">
+        <v>57</v>
+      </c>
+      <c r="G1" s="20" t="s">
+        <v>58</v>
+      </c>
+      <c r="H1" s="20" t="s">
+        <v>59</v>
+      </c>
+      <c r="I1" s="20" t="s">
+        <v>105</v>
+      </c>
+      <c r="J1" s="20" t="s">
+        <v>61</v>
+      </c>
+      <c r="K1" s="20" t="s">
+        <v>62</v>
+      </c>
+      <c r="L1" s="20" t="s">
+        <v>63</v>
+      </c>
+      <c r="M1" s="20" t="s">
+        <v>64</v>
+      </c>
+      <c r="N1" s="20" t="s">
+        <v>65</v>
+      </c>
       <c r="O1" s="1" t="s">
-        <v>9</v>
+        <v>40</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="2" customHeight="1" ht="17.25">
       <c r="A2" s="1" t="s">
-        <v>97</v>
+        <v>106</v>
       </c>
       <c r="B2" s="4"/>
       <c r="C2" s="1" t="s">
-        <v>58</v>
-      </c>
-      <c r="D2" s="21">
+        <v>67</v>
+      </c>
+      <c r="D2" s="22">
         <v>100</v>
       </c>
       <c r="E2" s="1" t="s">
-        <v>59</v>
+        <v>68</v>
       </c>
       <c r="F2" s="1" t="s">
-        <v>60</v>
+        <v>69</v>
       </c>
       <c r="G2" s="1" t="s">
-        <v>61</v>
+        <v>70</v>
       </c>
       <c r="H2" s="1" t="s">
-        <v>62</v>
+        <v>71</v>
       </c>
       <c r="I2" s="1" t="s">
-        <v>98</v>
+        <v>107</v>
       </c>
       <c r="J2" s="1" t="s">
-        <v>99</v>
+        <v>108</v>
       </c>
       <c r="K2" s="1" t="s">
-        <v>65</v>
+        <v>74</v>
       </c>
       <c r="L2" s="1" t="s">
-        <v>66</v>
+        <v>75</v>
       </c>
       <c r="M2" s="1" t="s">
-        <v>66</v>
+        <v>75</v>
       </c>
       <c r="N2" s="1" t="s">
-        <v>66</v>
+        <v>75</v>
       </c>
       <c r="O2" s="1" t="s">
-        <v>67</v>
+        <v>76</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="3" customHeight="1" ht="17.25">
       <c r="A3" s="1" t="s">
+        <v>109</v>
+      </c>
+      <c r="B3" s="4" t="s">
+        <v>28</v>
+      </c>
+      <c r="C3" s="1" t="s">
+        <v>67</v>
+      </c>
+      <c r="D3" s="22">
         <v>100</v>
       </c>
-      <c r="B3" s="4" t="s">
-        <v>26</v>
-      </c>
-      <c r="C3" s="1" t="s">
-        <v>58</v>
-      </c>
-      <c r="D3" s="21">
-        <v>100</v>
-      </c>
       <c r="E3" s="1" t="s">
-        <v>59</v>
+        <v>68</v>
       </c>
       <c r="F3" s="1" t="s">
-        <v>60</v>
+        <v>69</v>
       </c>
       <c r="G3" s="1" t="s">
-        <v>61</v>
+        <v>70</v>
       </c>
       <c r="H3" s="1" t="s">
-        <v>62</v>
+        <v>71</v>
       </c>
       <c r="I3" s="1" t="s">
-        <v>101</v>
+        <v>110</v>
       </c>
       <c r="J3" s="1" t="s">
-        <v>102</v>
+        <v>111</v>
       </c>
       <c r="K3" s="1" t="s">
-        <v>65</v>
+        <v>74</v>
       </c>
       <c r="L3" s="1" t="s">
-        <v>66</v>
+        <v>75</v>
       </c>
       <c r="M3" s="1" t="s">
-        <v>66</v>
+        <v>75</v>
       </c>
       <c r="N3" s="1" t="s">
-        <v>66</v>
-      </c>
-      <c r="O3" s="22" t="s">
-        <v>69</v>
+        <v>75</v>
+      </c>
+      <c r="O3" s="23" t="s">
+        <v>78</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="4" customHeight="1" ht="17.25">
       <c r="A4" s="1" t="s">
-        <v>103</v>
+        <v>112</v>
       </c>
       <c r="B4" s="1" t="s">
+        <v>80</v>
+      </c>
+      <c r="C4" s="4"/>
+      <c r="D4" s="22">
+        <v>100</v>
+      </c>
+      <c r="E4" s="1" t="s">
+        <v>68</v>
+      </c>
+      <c r="F4" s="1" t="s">
+        <v>69</v>
+      </c>
+      <c r="G4" s="1" t="s">
+        <v>70</v>
+      </c>
+      <c r="H4" s="1" t="s">
         <v>71</v>
       </c>
-      <c r="C4" s="4"/>
-      <c r="D4" s="21">
-        <v>100</v>
-      </c>
-      <c r="E4" s="1" t="s">
-        <v>59</v>
-      </c>
-      <c r="F4" s="1" t="s">
-        <v>60</v>
-      </c>
-      <c r="G4" s="1" t="s">
-        <v>61</v>
-      </c>
-      <c r="H4" s="1" t="s">
-        <v>62</v>
-      </c>
       <c r="I4" s="1" t="s">
-        <v>104</v>
+        <v>113</v>
       </c>
       <c r="J4" s="1" t="s">
-        <v>104</v>
+        <v>113</v>
       </c>
       <c r="K4" s="1" t="s">
-        <v>65</v>
+        <v>74</v>
       </c>
       <c r="L4" s="1" t="s">
-        <v>66</v>
+        <v>75</v>
       </c>
       <c r="M4" s="1" t="s">
-        <v>66</v>
+        <v>75</v>
       </c>
       <c r="N4" s="1" t="s">
-        <v>66</v>
-      </c>
-      <c r="O4" s="23" t="s">
-        <v>72</v>
+        <v>75</v>
+      </c>
+      <c r="O4" s="24" t="s">
+        <v>81</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="5" customHeight="1" ht="17.25">
       <c r="A5" s="1" t="s">
-        <v>97</v>
+        <v>106</v>
       </c>
       <c r="B5" s="1" t="s">
+        <v>80</v>
+      </c>
+      <c r="C5" s="4" t="s">
+        <v>28</v>
+      </c>
+      <c r="D5" s="22">
+        <v>100</v>
+      </c>
+      <c r="E5" s="1" t="s">
+        <v>68</v>
+      </c>
+      <c r="F5" s="1" t="s">
+        <v>69</v>
+      </c>
+      <c r="G5" s="1" t="s">
+        <v>70</v>
+      </c>
+      <c r="H5" s="1" t="s">
         <v>71</v>
       </c>
-      <c r="C5" s="4" t="s">
-        <v>26</v>
-      </c>
-      <c r="D5" s="21">
-        <v>100</v>
-      </c>
-      <c r="E5" s="1" t="s">
-        <v>59</v>
-      </c>
-      <c r="F5" s="1" t="s">
-        <v>60</v>
-      </c>
-      <c r="G5" s="1" t="s">
-        <v>61</v>
-      </c>
-      <c r="H5" s="1" t="s">
-        <v>62</v>
-      </c>
       <c r="I5" s="1" t="s">
-        <v>101</v>
+        <v>110</v>
       </c>
       <c r="J5" s="1" t="s">
-        <v>102</v>
+        <v>111</v>
       </c>
       <c r="K5" s="1" t="s">
-        <v>65</v>
+        <v>74</v>
       </c>
       <c r="L5" s="1" t="s">
-        <v>66</v>
+        <v>75</v>
       </c>
       <c r="M5" s="1" t="s">
-        <v>66</v>
+        <v>75</v>
       </c>
       <c r="N5" s="1" t="s">
-        <v>66</v>
+        <v>75</v>
       </c>
       <c r="O5" s="1" t="s">
-        <v>73</v>
+        <v>82</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="6" customHeight="1" ht="17.25">
       <c r="A6" s="1" t="s">
-        <v>97</v>
+        <v>106</v>
       </c>
       <c r="B6" s="1" t="s">
+        <v>80</v>
+      </c>
+      <c r="C6" s="1" t="s">
+        <v>67</v>
+      </c>
+      <c r="D6" s="25"/>
+      <c r="E6" s="1" t="s">
+        <v>68</v>
+      </c>
+      <c r="F6" s="1" t="s">
+        <v>69</v>
+      </c>
+      <c r="G6" s="1" t="s">
+        <v>70</v>
+      </c>
+      <c r="H6" s="1" t="s">
         <v>71</v>
       </c>
-      <c r="C6" s="1" t="s">
-        <v>58</v>
-      </c>
-      <c r="D6" s="24"/>
-      <c r="E6" s="1" t="s">
-        <v>59</v>
-      </c>
-      <c r="F6" s="1" t="s">
-        <v>60</v>
-      </c>
-      <c r="G6" s="1" t="s">
-        <v>61</v>
-      </c>
-      <c r="H6" s="1" t="s">
-        <v>62</v>
-      </c>
       <c r="I6" s="1" t="s">
-        <v>101</v>
+        <v>110</v>
       </c>
       <c r="J6" s="1" t="s">
-        <v>102</v>
+        <v>111</v>
       </c>
       <c r="K6" s="1" t="s">
-        <v>65</v>
+        <v>74</v>
       </c>
       <c r="L6" s="1" t="s">
-        <v>66</v>
+        <v>75</v>
       </c>
       <c r="M6" s="1" t="s">
-        <v>66</v>
+        <v>75</v>
       </c>
       <c r="N6" s="1" t="s">
-        <v>66</v>
+        <v>75</v>
       </c>
       <c r="O6" s="1" t="s">
-        <v>74</v>
+        <v>83</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="7" customHeight="1" ht="17.25">
       <c r="A7" s="1" t="s">
-        <v>97</v>
+        <v>106</v>
       </c>
       <c r="B7" s="1" t="s">
+        <v>80</v>
+      </c>
+      <c r="C7" s="1" t="s">
+        <v>67</v>
+      </c>
+      <c r="D7" s="25" t="s">
+        <v>84</v>
+      </c>
+      <c r="E7" s="1" t="s">
+        <v>68</v>
+      </c>
+      <c r="F7" s="1" t="s">
+        <v>69</v>
+      </c>
+      <c r="G7" s="1" t="s">
+        <v>70</v>
+      </c>
+      <c r="H7" s="1" t="s">
         <v>71</v>
       </c>
-      <c r="C7" s="1" t="s">
-        <v>58</v>
-      </c>
-      <c r="D7" s="24" t="s">
-        <v>75</v>
-      </c>
-      <c r="E7" s="1" t="s">
-        <v>59</v>
-      </c>
-      <c r="F7" s="1" t="s">
-        <v>60</v>
-      </c>
-      <c r="G7" s="1" t="s">
-        <v>61</v>
-      </c>
-      <c r="H7" s="1" t="s">
-        <v>62</v>
-      </c>
       <c r="I7" s="1" t="s">
-        <v>101</v>
+        <v>110</v>
       </c>
       <c r="J7" s="1" t="s">
-        <v>102</v>
+        <v>111</v>
       </c>
       <c r="K7" s="1" t="s">
-        <v>65</v>
+        <v>74</v>
       </c>
       <c r="L7" s="1" t="s">
-        <v>66</v>
+        <v>75</v>
       </c>
       <c r="M7" s="1" t="s">
-        <v>66</v>
+        <v>75</v>
       </c>
       <c r="N7" s="1" t="s">
-        <v>66</v>
+        <v>75</v>
       </c>
       <c r="O7" s="1" t="s">
-        <v>76</v>
+        <v>85</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="8" customHeight="1" ht="17.25">
       <c r="A8" s="1" t="s">
-        <v>97</v>
+        <v>106</v>
       </c>
       <c r="B8" s="1" t="s">
-        <v>71</v>
+        <v>80</v>
       </c>
       <c r="C8" s="1" t="s">
-        <v>58</v>
+        <v>67</v>
       </c>
       <c r="D8" s="7">
         <v>-1</v>
       </c>
       <c r="E8" s="1" t="s">
-        <v>59</v>
+        <v>68</v>
       </c>
       <c r="F8" s="1" t="s">
-        <v>60</v>
+        <v>69</v>
       </c>
       <c r="G8" s="1" t="s">
-        <v>61</v>
+        <v>70</v>
       </c>
       <c r="H8" s="1" t="s">
-        <v>62</v>
+        <v>71</v>
       </c>
       <c r="I8" s="1" t="s">
-        <v>101</v>
+        <v>110</v>
       </c>
       <c r="J8" s="1" t="s">
-        <v>102</v>
+        <v>111</v>
       </c>
       <c r="K8" s="1" t="s">
-        <v>65</v>
+        <v>74</v>
       </c>
       <c r="L8" s="1" t="s">
-        <v>66</v>
+        <v>75</v>
       </c>
       <c r="M8" s="1" t="s">
-        <v>66</v>
+        <v>75</v>
       </c>
       <c r="N8" s="1" t="s">
-        <v>66</v>
+        <v>75</v>
       </c>
       <c r="O8" s="1" t="s">
-        <v>76</v>
+        <v>85</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="9" customHeight="1" ht="17.25">
       <c r="A9" s="1" t="s">
-        <v>97</v>
+        <v>106</v>
       </c>
       <c r="B9" s="1" t="s">
-        <v>71</v>
+        <v>80</v>
       </c>
       <c r="C9" s="1" t="s">
-        <v>58</v>
-      </c>
-      <c r="D9" s="21">
+        <v>67</v>
+      </c>
+      <c r="D9" s="22">
         <v>100</v>
       </c>
       <c r="E9" s="4"/>
       <c r="F9" s="1" t="s">
-        <v>60</v>
+        <v>69</v>
       </c>
       <c r="G9" s="1" t="s">
-        <v>61</v>
+        <v>70</v>
       </c>
       <c r="H9" s="1" t="s">
-        <v>62</v>
+        <v>71</v>
       </c>
       <c r="I9" s="1" t="s">
-        <v>101</v>
+        <v>110</v>
       </c>
       <c r="J9" s="1" t="s">
-        <v>102</v>
+        <v>111</v>
       </c>
       <c r="K9" s="1" t="s">
-        <v>65</v>
+        <v>74</v>
       </c>
       <c r="L9" s="1" t="s">
-        <v>66</v>
+        <v>75</v>
       </c>
       <c r="M9" s="1" t="s">
-        <v>66</v>
+        <v>75</v>
       </c>
       <c r="N9" s="1" t="s">
-        <v>66</v>
+        <v>75</v>
       </c>
       <c r="O9" s="1" t="s">
-        <v>77</v>
+        <v>86</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="10" customHeight="1" ht="17.25">
       <c r="A10" s="1" t="s">
-        <v>97</v>
+        <v>106</v>
       </c>
       <c r="B10" s="1" t="s">
+        <v>80</v>
+      </c>
+      <c r="C10" s="1" t="s">
+        <v>67</v>
+      </c>
+      <c r="D10" s="22">
+        <v>100</v>
+      </c>
+      <c r="E10" s="4" t="s">
+        <v>87</v>
+      </c>
+      <c r="F10" s="1" t="s">
+        <v>69</v>
+      </c>
+      <c r="G10" s="1" t="s">
+        <v>70</v>
+      </c>
+      <c r="H10" s="1" t="s">
         <v>71</v>
       </c>
-      <c r="C10" s="1" t="s">
-        <v>58</v>
-      </c>
-      <c r="D10" s="21">
-        <v>100</v>
-      </c>
-      <c r="E10" s="4" t="s">
-        <v>78</v>
-      </c>
-      <c r="F10" s="1" t="s">
-        <v>60</v>
-      </c>
-      <c r="G10" s="1" t="s">
-        <v>61</v>
-      </c>
-      <c r="H10" s="1" t="s">
-        <v>62</v>
-      </c>
       <c r="I10" s="1" t="s">
-        <v>101</v>
+        <v>110</v>
       </c>
       <c r="J10" s="1" t="s">
-        <v>102</v>
+        <v>111</v>
       </c>
       <c r="K10" s="1" t="s">
-        <v>65</v>
+        <v>74</v>
       </c>
       <c r="L10" s="1" t="s">
-        <v>66</v>
+        <v>75</v>
       </c>
       <c r="M10" s="1" t="s">
-        <v>66</v>
+        <v>75</v>
       </c>
       <c r="N10" s="1" t="s">
-        <v>66</v>
+        <v>75</v>
       </c>
       <c r="O10" s="1" t="s">
-        <v>79</v>
+        <v>88</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="11" customHeight="1" ht="17.25">
       <c r="A11" s="1" t="s">
-        <v>97</v>
+        <v>106</v>
       </c>
       <c r="B11" s="1" t="s">
-        <v>71</v>
+        <v>80</v>
       </c>
       <c r="C11" s="1" t="s">
-        <v>58</v>
-      </c>
-      <c r="D11" s="21">
+        <v>67</v>
+      </c>
+      <c r="D11" s="22">
         <v>100</v>
       </c>
       <c r="E11" s="1" t="s">
-        <v>59</v>
+        <v>68</v>
       </c>
       <c r="F11" s="4"/>
       <c r="G11" s="1" t="s">
-        <v>61</v>
+        <v>70</v>
       </c>
       <c r="H11" s="1" t="s">
-        <v>62</v>
+        <v>71</v>
       </c>
       <c r="I11" s="1" t="s">
-        <v>101</v>
+        <v>110</v>
       </c>
       <c r="J11" s="1" t="s">
-        <v>102</v>
+        <v>111</v>
       </c>
       <c r="K11" s="1" t="s">
-        <v>65</v>
+        <v>74</v>
       </c>
       <c r="L11" s="1" t="s">
-        <v>66</v>
+        <v>75</v>
       </c>
       <c r="M11" s="1" t="s">
-        <v>66</v>
+        <v>75</v>
       </c>
       <c r="N11" s="1" t="s">
-        <v>66</v>
+        <v>75</v>
       </c>
       <c r="O11" s="1" t="s">
-        <v>80</v>
+        <v>89</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="12" customHeight="1" ht="17.25">
       <c r="A12" s="1" t="s">
-        <v>97</v>
+        <v>106</v>
       </c>
       <c r="B12" s="1" t="s">
+        <v>80</v>
+      </c>
+      <c r="C12" s="1" t="s">
+        <v>67</v>
+      </c>
+      <c r="D12" s="22">
+        <v>100</v>
+      </c>
+      <c r="E12" s="1" t="s">
+        <v>68</v>
+      </c>
+      <c r="F12" s="4" t="s">
+        <v>87</v>
+      </c>
+      <c r="G12" s="1" t="s">
+        <v>70</v>
+      </c>
+      <c r="H12" s="1" t="s">
         <v>71</v>
       </c>
-      <c r="C12" s="1" t="s">
-        <v>58</v>
-      </c>
-      <c r="D12" s="21">
-        <v>100</v>
-      </c>
-      <c r="E12" s="1" t="s">
-        <v>59</v>
-      </c>
-      <c r="F12" s="4" t="s">
-        <v>78</v>
-      </c>
-      <c r="G12" s="1" t="s">
-        <v>61</v>
-      </c>
-      <c r="H12" s="1" t="s">
-        <v>62</v>
-      </c>
       <c r="I12" s="1" t="s">
-        <v>101</v>
+        <v>110</v>
       </c>
       <c r="J12" s="1" t="s">
-        <v>102</v>
+        <v>111</v>
       </c>
       <c r="K12" s="1" t="s">
-        <v>65</v>
+        <v>74</v>
       </c>
       <c r="L12" s="1" t="s">
-        <v>66</v>
+        <v>75</v>
       </c>
       <c r="M12" s="1" t="s">
-        <v>66</v>
+        <v>75</v>
       </c>
       <c r="N12" s="1" t="s">
-        <v>66</v>
+        <v>75</v>
       </c>
       <c r="O12" s="1" t="s">
-        <v>81</v>
+        <v>90</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="13" customHeight="1" ht="17.25">
       <c r="A13" s="1" t="s">
-        <v>97</v>
+        <v>106</v>
       </c>
       <c r="B13" s="1" t="s">
-        <v>71</v>
+        <v>80</v>
       </c>
       <c r="C13" s="1" t="s">
-        <v>58</v>
-      </c>
-      <c r="D13" s="21">
+        <v>67</v>
+      </c>
+      <c r="D13" s="22">
         <v>100</v>
       </c>
       <c r="E13" s="1" t="s">
-        <v>59</v>
+        <v>68</v>
       </c>
       <c r="F13" s="1" t="s">
-        <v>60</v>
+        <v>69</v>
       </c>
       <c r="G13" s="4"/>
       <c r="H13" s="1" t="s">
-        <v>62</v>
+        <v>71</v>
       </c>
       <c r="I13" s="1" t="s">
-        <v>101</v>
+        <v>110</v>
       </c>
       <c r="J13" s="1" t="s">
-        <v>102</v>
+        <v>111</v>
       </c>
       <c r="K13" s="1" t="s">
-        <v>65</v>
+        <v>74</v>
       </c>
       <c r="L13" s="1" t="s">
-        <v>66</v>
+        <v>75</v>
       </c>
       <c r="M13" s="1" t="s">
-        <v>66</v>
+        <v>75</v>
       </c>
       <c r="N13" s="1" t="s">
-        <v>66</v>
+        <v>75</v>
       </c>
       <c r="O13" s="1" t="s">
-        <v>82</v>
+        <v>91</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="14" customHeight="1" ht="17.25">
       <c r="A14" s="1" t="s">
-        <v>97</v>
+        <v>106</v>
       </c>
       <c r="B14" s="1" t="s">
+        <v>80</v>
+      </c>
+      <c r="C14" s="1" t="s">
+        <v>67</v>
+      </c>
+      <c r="D14" s="22">
+        <v>100</v>
+      </c>
+      <c r="E14" s="1" t="s">
+        <v>68</v>
+      </c>
+      <c r="F14" s="1" t="s">
+        <v>69</v>
+      </c>
+      <c r="G14" s="4" t="s">
+        <v>87</v>
+      </c>
+      <c r="H14" s="1" t="s">
         <v>71</v>
       </c>
-      <c r="C14" s="1" t="s">
-        <v>58</v>
-      </c>
-      <c r="D14" s="21">
-        <v>100</v>
-      </c>
-      <c r="E14" s="1" t="s">
-        <v>59</v>
-      </c>
-      <c r="F14" s="1" t="s">
-        <v>60</v>
-      </c>
-      <c r="G14" s="4" t="s">
-        <v>78</v>
-      </c>
-      <c r="H14" s="1" t="s">
-        <v>62</v>
-      </c>
       <c r="I14" s="1" t="s">
-        <v>101</v>
+        <v>110</v>
       </c>
       <c r="J14" s="1" t="s">
-        <v>102</v>
+        <v>111</v>
       </c>
       <c r="K14" s="1" t="s">
-        <v>65</v>
+        <v>74</v>
       </c>
       <c r="L14" s="1" t="s">
-        <v>66</v>
+        <v>75</v>
       </c>
       <c r="M14" s="1" t="s">
-        <v>66</v>
+        <v>75</v>
       </c>
       <c r="N14" s="1" t="s">
-        <v>66</v>
+        <v>75</v>
       </c>
       <c r="O14" s="1" t="s">
-        <v>83</v>
+        <v>92</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="15" customHeight="1" ht="17.25">
       <c r="A15" s="1" t="s">
-        <v>97</v>
+        <v>106</v>
       </c>
       <c r="B15" s="1" t="s">
-        <v>71</v>
+        <v>80</v>
       </c>
       <c r="C15" s="1" t="s">
-        <v>58</v>
-      </c>
-      <c r="D15" s="21">
+        <v>67</v>
+      </c>
+      <c r="D15" s="22">
         <v>100</v>
       </c>
       <c r="E15" s="1" t="s">
-        <v>59</v>
+        <v>68</v>
       </c>
       <c r="F15" s="1" t="s">
-        <v>60</v>
+        <v>69</v>
       </c>
       <c r="G15" s="1" t="s">
-        <v>61</v>
+        <v>70</v>
       </c>
       <c r="H15" s="4"/>
       <c r="I15" s="1" t="s">
-        <v>101</v>
+        <v>110</v>
       </c>
       <c r="J15" s="1" t="s">
-        <v>102</v>
+        <v>111</v>
       </c>
       <c r="K15" s="1" t="s">
-        <v>65</v>
+        <v>74</v>
       </c>
       <c r="L15" s="1" t="s">
-        <v>66</v>
+        <v>75</v>
       </c>
       <c r="M15" s="1" t="s">
-        <v>66</v>
+        <v>75</v>
       </c>
       <c r="N15" s="1" t="s">
-        <v>66</v>
+        <v>75</v>
       </c>
       <c r="O15" s="1" t="s">
-        <v>84</v>
+        <v>93</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="16" customHeight="1" ht="17.25">
       <c r="A16" s="1" t="s">
-        <v>97</v>
+        <v>106</v>
       </c>
       <c r="B16" s="1" t="s">
-        <v>71</v>
+        <v>80</v>
       </c>
       <c r="C16" s="1" t="s">
-        <v>58</v>
-      </c>
-      <c r="D16" s="21">
+        <v>67</v>
+      </c>
+      <c r="D16" s="22">
         <v>100</v>
       </c>
       <c r="E16" s="1" t="s">
-        <v>59</v>
+        <v>68</v>
       </c>
       <c r="F16" s="1" t="s">
-        <v>60</v>
+        <v>69</v>
       </c>
       <c r="G16" s="1" t="s">
-        <v>61</v>
+        <v>70</v>
       </c>
       <c r="H16" s="4" t="s">
-        <v>78</v>
+        <v>87</v>
       </c>
       <c r="I16" s="1" t="s">
-        <v>101</v>
+        <v>110</v>
       </c>
       <c r="J16" s="1" t="s">
-        <v>102</v>
+        <v>111</v>
       </c>
       <c r="K16" s="1" t="s">
-        <v>65</v>
+        <v>74</v>
       </c>
       <c r="L16" s="1" t="s">
-        <v>66</v>
+        <v>75</v>
       </c>
       <c r="M16" s="1" t="s">
-        <v>66</v>
+        <v>75</v>
       </c>
       <c r="N16" s="1" t="s">
-        <v>66</v>
+        <v>75</v>
       </c>
       <c r="O16" s="1" t="s">
-        <v>85</v>
+        <v>94</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="17" customHeight="1" ht="17.25">
       <c r="A17" s="1" t="s">
-        <v>97</v>
+        <v>106</v>
       </c>
       <c r="B17" s="1" t="s">
+        <v>80</v>
+      </c>
+      <c r="C17" s="1" t="s">
+        <v>67</v>
+      </c>
+      <c r="D17" s="22">
+        <v>100</v>
+      </c>
+      <c r="E17" s="1" t="s">
+        <v>68</v>
+      </c>
+      <c r="F17" s="1" t="s">
+        <v>69</v>
+      </c>
+      <c r="G17" s="1" t="s">
+        <v>70</v>
+      </c>
+      <c r="H17" s="1" t="s">
         <v>71</v>
-      </c>
-      <c r="C17" s="1" t="s">
-        <v>58</v>
-      </c>
-      <c r="D17" s="21">
-        <v>100</v>
-      </c>
-      <c r="E17" s="1" t="s">
-        <v>59</v>
-      </c>
-      <c r="F17" s="1" t="s">
-        <v>60</v>
-      </c>
-      <c r="G17" s="1" t="s">
-        <v>61</v>
-      </c>
-      <c r="H17" s="1" t="s">
-        <v>62</v>
       </c>
       <c r="I17" s="4"/>
       <c r="J17" s="1" t="s">
-        <v>102</v>
+        <v>111</v>
       </c>
       <c r="K17" s="1" t="s">
-        <v>65</v>
+        <v>74</v>
       </c>
       <c r="L17" s="1" t="s">
-        <v>66</v>
+        <v>75</v>
       </c>
       <c r="M17" s="1" t="s">
-        <v>66</v>
+        <v>75</v>
       </c>
       <c r="N17" s="1" t="s">
-        <v>66</v>
+        <v>75</v>
       </c>
       <c r="O17" s="1" t="s">
-        <v>86</v>
+        <v>95</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="18" customHeight="1" ht="17.25">
       <c r="A18" s="1" t="s">
-        <v>97</v>
+        <v>106</v>
       </c>
       <c r="B18" s="1" t="s">
+        <v>80</v>
+      </c>
+      <c r="C18" s="1" t="s">
+        <v>67</v>
+      </c>
+      <c r="D18" s="22">
+        <v>100</v>
+      </c>
+      <c r="E18" s="1" t="s">
+        <v>68</v>
+      </c>
+      <c r="F18" s="1" t="s">
+        <v>69</v>
+      </c>
+      <c r="G18" s="1" t="s">
+        <v>70</v>
+      </c>
+      <c r="H18" s="1" t="s">
         <v>71</v>
       </c>
-      <c r="C18" s="1" t="s">
-        <v>58</v>
-      </c>
-      <c r="D18" s="21">
-        <v>100</v>
-      </c>
-      <c r="E18" s="1" t="s">
-        <v>59</v>
-      </c>
-      <c r="F18" s="1" t="s">
-        <v>60</v>
-      </c>
-      <c r="G18" s="1" t="s">
-        <v>61</v>
-      </c>
-      <c r="H18" s="1" t="s">
-        <v>62</v>
-      </c>
       <c r="I18" s="1" t="s">
-        <v>101</v>
+        <v>110</v>
       </c>
       <c r="J18" s="4"/>
       <c r="K18" s="1" t="s">
-        <v>65</v>
+        <v>74</v>
       </c>
       <c r="L18" s="1" t="s">
-        <v>66</v>
+        <v>75</v>
       </c>
       <c r="M18" s="1" t="s">
-        <v>66</v>
+        <v>75</v>
       </c>
       <c r="N18" s="1" t="s">
-        <v>66</v>
+        <v>75</v>
       </c>
       <c r="O18" s="1" t="s">
-        <v>87</v>
+        <v>96</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="19" customHeight="1" ht="17.25">
       <c r="A19" s="1" t="s">
-        <v>97</v>
+        <v>106</v>
       </c>
       <c r="B19" s="1" t="s">
+        <v>80</v>
+      </c>
+      <c r="C19" s="1" t="s">
+        <v>67</v>
+      </c>
+      <c r="D19" s="22">
+        <v>100</v>
+      </c>
+      <c r="E19" s="1" t="s">
+        <v>68</v>
+      </c>
+      <c r="F19" s="1" t="s">
+        <v>69</v>
+      </c>
+      <c r="G19" s="1" t="s">
+        <v>70</v>
+      </c>
+      <c r="H19" s="1" t="s">
         <v>71</v>
       </c>
-      <c r="C19" s="1" t="s">
-        <v>58</v>
-      </c>
-      <c r="D19" s="21">
-        <v>100</v>
-      </c>
-      <c r="E19" s="1" t="s">
-        <v>59</v>
-      </c>
-      <c r="F19" s="1" t="s">
-        <v>60</v>
-      </c>
-      <c r="G19" s="1" t="s">
-        <v>61</v>
-      </c>
-      <c r="H19" s="1" t="s">
-        <v>62</v>
-      </c>
       <c r="I19" s="1" t="s">
-        <v>101</v>
+        <v>110</v>
       </c>
       <c r="J19" s="1" t="s">
-        <v>102</v>
+        <v>111</v>
       </c>
       <c r="K19" s="4"/>
       <c r="L19" s="1" t="s">
-        <v>66</v>
+        <v>75</v>
       </c>
       <c r="M19" s="1" t="s">
-        <v>66</v>
+        <v>75</v>
       </c>
       <c r="N19" s="1" t="s">
-        <v>66</v>
+        <v>75</v>
       </c>
       <c r="O19" s="1" t="s">
-        <v>88</v>
+        <v>97</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="20" customHeight="1" ht="17.25">
       <c r="A20" s="1" t="s">
-        <v>97</v>
+        <v>106</v>
       </c>
       <c r="B20" s="1" t="s">
+        <v>80</v>
+      </c>
+      <c r="C20" s="1" t="s">
+        <v>67</v>
+      </c>
+      <c r="D20" s="22">
+        <v>100</v>
+      </c>
+      <c r="E20" s="1" t="s">
+        <v>68</v>
+      </c>
+      <c r="F20" s="1" t="s">
+        <v>69</v>
+      </c>
+      <c r="G20" s="1" t="s">
+        <v>70</v>
+      </c>
+      <c r="H20" s="1" t="s">
         <v>71</v>
       </c>
-      <c r="C20" s="1" t="s">
-        <v>58</v>
-      </c>
-      <c r="D20" s="21">
-        <v>100</v>
-      </c>
-      <c r="E20" s="1" t="s">
-        <v>59</v>
-      </c>
-      <c r="F20" s="1" t="s">
-        <v>60</v>
-      </c>
-      <c r="G20" s="1" t="s">
-        <v>61</v>
-      </c>
-      <c r="H20" s="1" t="s">
-        <v>62</v>
-      </c>
       <c r="I20" s="1" t="s">
-        <v>101</v>
+        <v>110</v>
       </c>
       <c r="J20" s="1" t="s">
-        <v>102</v>
+        <v>111</v>
       </c>
       <c r="K20" s="1" t="s">
-        <v>65</v>
+        <v>74</v>
       </c>
       <c r="L20" s="4"/>
       <c r="M20" s="1" t="s">
-        <v>66</v>
+        <v>75</v>
       </c>
       <c r="N20" s="1" t="s">
-        <v>66</v>
+        <v>75</v>
       </c>
       <c r="O20" s="1" t="s">
-        <v>89</v>
+        <v>98</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="21" customHeight="1" ht="17.25">
       <c r="A21" s="1" t="s">
-        <v>97</v>
+        <v>106</v>
       </c>
       <c r="B21" s="1" t="s">
+        <v>80</v>
+      </c>
+      <c r="C21" s="1" t="s">
+        <v>67</v>
+      </c>
+      <c r="D21" s="22">
+        <v>100</v>
+      </c>
+      <c r="E21" s="1" t="s">
+        <v>68</v>
+      </c>
+      <c r="F21" s="1" t="s">
+        <v>69</v>
+      </c>
+      <c r="G21" s="1" t="s">
+        <v>70</v>
+      </c>
+      <c r="H21" s="1" t="s">
         <v>71</v>
       </c>
-      <c r="C21" s="1" t="s">
-        <v>58</v>
-      </c>
-      <c r="D21" s="21">
-        <v>100</v>
-      </c>
-      <c r="E21" s="1" t="s">
-        <v>59</v>
-      </c>
-      <c r="F21" s="1" t="s">
-        <v>60</v>
-      </c>
-      <c r="G21" s="1" t="s">
-        <v>61</v>
-      </c>
-      <c r="H21" s="1" t="s">
-        <v>62</v>
-      </c>
       <c r="I21" s="1" t="s">
-        <v>101</v>
+        <v>110</v>
       </c>
       <c r="J21" s="1" t="s">
-        <v>102</v>
+        <v>111</v>
       </c>
       <c r="K21" s="1" t="s">
-        <v>65</v>
+        <v>74</v>
       </c>
       <c r="L21" s="1" t="s">
-        <v>66</v>
+        <v>75</v>
       </c>
       <c r="M21" s="4"/>
       <c r="N21" s="4"/>
       <c r="O21" s="1" t="s">
-        <v>90</v>
+        <v>99</v>
       </c>
     </row>
   </sheetData>
@@ -2296,1168 +2326,1168 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" style="14" width="12.43357142857143" customWidth="1" bestFit="1"/>
-    <col min="2" max="2" style="14" width="12.43357142857143" customWidth="1" bestFit="1"/>
-    <col min="3" max="3" style="14" width="12.43357142857143" customWidth="1" bestFit="1"/>
-    <col min="4" max="4" style="25" width="12.43357142857143" customWidth="1" bestFit="1"/>
-    <col min="5" max="5" style="14" width="12.43357142857143" customWidth="1" bestFit="1"/>
-    <col min="6" max="6" style="14" width="12.43357142857143" customWidth="1" bestFit="1"/>
-    <col min="7" max="7" style="14" width="14.147857142857141" customWidth="1" bestFit="1"/>
-    <col min="8" max="8" style="14" width="12.43357142857143" customWidth="1" bestFit="1"/>
-    <col min="9" max="9" style="16" width="12.43357142857143" customWidth="1" bestFit="1"/>
-    <col min="10" max="10" style="14" width="12.43357142857143" customWidth="1" bestFit="1"/>
-    <col min="11" max="11" style="14" width="12.43357142857143" customWidth="1" bestFit="1"/>
-    <col min="12" max="12" style="14" width="12.43357142857143" customWidth="1" bestFit="1"/>
-    <col min="13" max="13" style="14" width="12.43357142857143" customWidth="1" bestFit="1"/>
-    <col min="14" max="14" style="14" width="12.43357142857143" customWidth="1" bestFit="1"/>
-    <col min="15" max="15" style="14" width="31.719285714285714" customWidth="1" bestFit="1"/>
+    <col min="1" max="1" style="15" width="12.43357142857143" customWidth="1" bestFit="1"/>
+    <col min="2" max="2" style="15" width="12.43357142857143" customWidth="1" bestFit="1"/>
+    <col min="3" max="3" style="15" width="12.43357142857143" customWidth="1" bestFit="1"/>
+    <col min="4" max="4" style="26" width="12.43357142857143" customWidth="1" bestFit="1"/>
+    <col min="5" max="5" style="15" width="12.43357142857143" customWidth="1" bestFit="1"/>
+    <col min="6" max="6" style="15" width="12.43357142857143" customWidth="1" bestFit="1"/>
+    <col min="7" max="7" style="15" width="14.147857142857141" customWidth="1" bestFit="1"/>
+    <col min="8" max="8" style="15" width="12.43357142857143" customWidth="1" bestFit="1"/>
+    <col min="9" max="9" style="17" width="12.43357142857143" customWidth="1" bestFit="1"/>
+    <col min="10" max="10" style="15" width="12.43357142857143" customWidth="1" bestFit="1"/>
+    <col min="11" max="11" style="15" width="12.43357142857143" customWidth="1" bestFit="1"/>
+    <col min="12" max="12" style="15" width="12.43357142857143" customWidth="1" bestFit="1"/>
+    <col min="13" max="13" style="15" width="12.43357142857143" customWidth="1" bestFit="1"/>
+    <col min="14" max="14" style="15" width="12.43357142857143" customWidth="1" bestFit="1"/>
+    <col min="15" max="15" style="15" width="31.719285714285714" customWidth="1" bestFit="1"/>
   </cols>
   <sheetData>
     <row x14ac:dyDescent="0.25" r="1" customHeight="1" ht="18">
-      <c r="A1" s="19" t="s">
-        <v>42</v>
-      </c>
-      <c r="B1" s="19" t="s">
-        <v>43</v>
-      </c>
-      <c r="C1" s="19" t="s">
-        <v>44</v>
-      </c>
-      <c r="D1" s="20" t="s">
-        <v>45</v>
-      </c>
-      <c r="E1" s="19" t="s">
-        <v>46</v>
-      </c>
-      <c r="F1" s="19" t="s">
-        <v>47</v>
-      </c>
-      <c r="G1" s="19" t="s">
-        <v>48</v>
-      </c>
-      <c r="H1" s="19" t="s">
-        <v>49</v>
-      </c>
-      <c r="I1" s="20" t="s">
-        <v>50</v>
-      </c>
-      <c r="J1" s="19" t="s">
-        <v>51</v>
-      </c>
-      <c r="K1" s="19" t="s">
+      <c r="A1" s="20" t="s">
         <v>52</v>
       </c>
-      <c r="L1" s="19" t="s">
+      <c r="B1" s="20" t="s">
         <v>53</v>
       </c>
-      <c r="M1" s="19" t="s">
+      <c r="C1" s="20" t="s">
         <v>54</v>
       </c>
-      <c r="N1" s="19" t="s">
+      <c r="D1" s="21" t="s">
         <v>55</v>
       </c>
-      <c r="O1" s="19" t="s">
+      <c r="E1" s="20" t="s">
         <v>56</v>
+      </c>
+      <c r="F1" s="20" t="s">
+        <v>57</v>
+      </c>
+      <c r="G1" s="20" t="s">
+        <v>58</v>
+      </c>
+      <c r="H1" s="20" t="s">
+        <v>59</v>
+      </c>
+      <c r="I1" s="21" t="s">
+        <v>60</v>
+      </c>
+      <c r="J1" s="20" t="s">
+        <v>61</v>
+      </c>
+      <c r="K1" s="20" t="s">
+        <v>62</v>
+      </c>
+      <c r="L1" s="20" t="s">
+        <v>63</v>
+      </c>
+      <c r="M1" s="20" t="s">
+        <v>64</v>
+      </c>
+      <c r="N1" s="20" t="s">
+        <v>65</v>
+      </c>
+      <c r="O1" s="20" t="s">
+        <v>9</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="2" customHeight="1" ht="21">
       <c r="A2" s="1" t="s">
-        <v>57</v>
+        <v>66</v>
       </c>
       <c r="B2" s="4"/>
       <c r="C2" s="1" t="s">
-        <v>58</v>
-      </c>
-      <c r="D2" s="21">
+        <v>67</v>
+      </c>
+      <c r="D2" s="22">
         <v>100</v>
       </c>
       <c r="E2" s="1" t="s">
-        <v>59</v>
+        <v>68</v>
       </c>
       <c r="F2" s="1" t="s">
-        <v>60</v>
+        <v>69</v>
       </c>
       <c r="G2" s="1" t="s">
-        <v>61</v>
+        <v>70</v>
       </c>
       <c r="H2" s="1" t="s">
-        <v>62</v>
+        <v>71</v>
       </c>
       <c r="I2" s="3" t="s">
-        <v>63</v>
+        <v>72</v>
       </c>
       <c r="J2" s="1" t="s">
-        <v>64</v>
+        <v>73</v>
       </c>
       <c r="K2" s="1" t="s">
-        <v>65</v>
+        <v>74</v>
       </c>
       <c r="L2" s="1" t="s">
-        <v>66</v>
+        <v>75</v>
       </c>
       <c r="M2" s="1" t="s">
-        <v>66</v>
+        <v>75</v>
       </c>
       <c r="N2" s="1" t="s">
-        <v>66</v>
+        <v>75</v>
       </c>
       <c r="O2" s="1" t="s">
-        <v>67</v>
+        <v>76</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="3" customHeight="1" ht="21">
       <c r="A3" s="1" t="s">
+        <v>77</v>
+      </c>
+      <c r="B3" s="4" t="s">
+        <v>28</v>
+      </c>
+      <c r="C3" s="1" t="s">
+        <v>67</v>
+      </c>
+      <c r="D3" s="22">
+        <v>100</v>
+      </c>
+      <c r="E3" s="1" t="s">
         <v>68</v>
       </c>
-      <c r="B3" s="4" t="s">
-        <v>26</v>
-      </c>
-      <c r="C3" s="1" t="s">
-        <v>58</v>
-      </c>
-      <c r="D3" s="21">
-        <v>100</v>
-      </c>
-      <c r="E3" s="1" t="s">
-        <v>59</v>
-      </c>
       <c r="F3" s="1" t="s">
-        <v>60</v>
+        <v>69</v>
       </c>
       <c r="G3" s="1" t="s">
-        <v>61</v>
+        <v>70</v>
       </c>
       <c r="H3" s="1" t="s">
-        <v>62</v>
+        <v>71</v>
       </c>
       <c r="I3" s="3" t="s">
-        <v>63</v>
+        <v>72</v>
       </c>
       <c r="J3" s="1" t="s">
-        <v>64</v>
+        <v>73</v>
       </c>
       <c r="K3" s="1" t="s">
-        <v>65</v>
+        <v>74</v>
       </c>
       <c r="L3" s="1" t="s">
-        <v>66</v>
+        <v>75</v>
       </c>
       <c r="M3" s="1" t="s">
-        <v>66</v>
+        <v>75</v>
       </c>
       <c r="N3" s="1" t="s">
-        <v>66</v>
-      </c>
-      <c r="O3" s="22" t="s">
-        <v>69</v>
+        <v>75</v>
+      </c>
+      <c r="O3" s="23" t="s">
+        <v>78</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="4" customHeight="1" ht="21">
       <c r="A4" s="1" t="s">
+        <v>79</v>
+      </c>
+      <c r="B4" s="1" t="s">
+        <v>80</v>
+      </c>
+      <c r="C4" s="4"/>
+      <c r="D4" s="22">
+        <v>100</v>
+      </c>
+      <c r="E4" s="1" t="s">
+        <v>68</v>
+      </c>
+      <c r="F4" s="1" t="s">
+        <v>69</v>
+      </c>
+      <c r="G4" s="1" t="s">
         <v>70</v>
       </c>
-      <c r="B4" s="1" t="s">
+      <c r="H4" s="1" t="s">
         <v>71</v>
       </c>
-      <c r="C4" s="4"/>
-      <c r="D4" s="21">
-        <v>100</v>
-      </c>
-      <c r="E4" s="1" t="s">
-        <v>59</v>
-      </c>
-      <c r="F4" s="1" t="s">
-        <v>60</v>
-      </c>
-      <c r="G4" s="1" t="s">
-        <v>61</v>
-      </c>
-      <c r="H4" s="1" t="s">
-        <v>62</v>
-      </c>
       <c r="I4" s="3" t="s">
-        <v>63</v>
+        <v>72</v>
       </c>
       <c r="J4" s="1" t="s">
-        <v>64</v>
+        <v>73</v>
       </c>
       <c r="K4" s="1" t="s">
-        <v>65</v>
+        <v>74</v>
       </c>
       <c r="L4" s="1" t="s">
-        <v>66</v>
+        <v>75</v>
       </c>
       <c r="M4" s="1" t="s">
-        <v>66</v>
+        <v>75</v>
       </c>
       <c r="N4" s="1" t="s">
-        <v>66</v>
-      </c>
-      <c r="O4" s="23" t="s">
-        <v>72</v>
+        <v>75</v>
+      </c>
+      <c r="O4" s="24" t="s">
+        <v>81</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="5" customHeight="1" ht="21">
       <c r="A5" s="1" t="s">
-        <v>57</v>
+        <v>66</v>
       </c>
       <c r="B5" s="1" t="s">
+        <v>80</v>
+      </c>
+      <c r="C5" s="4" t="s">
+        <v>28</v>
+      </c>
+      <c r="D5" s="22">
+        <v>100</v>
+      </c>
+      <c r="E5" s="1" t="s">
+        <v>68</v>
+      </c>
+      <c r="F5" s="1" t="s">
+        <v>69</v>
+      </c>
+      <c r="G5" s="1" t="s">
+        <v>70</v>
+      </c>
+      <c r="H5" s="1" t="s">
         <v>71</v>
       </c>
-      <c r="C5" s="4" t="s">
-        <v>26</v>
-      </c>
-      <c r="D5" s="21">
-        <v>100</v>
-      </c>
-      <c r="E5" s="1" t="s">
-        <v>59</v>
-      </c>
-      <c r="F5" s="1" t="s">
-        <v>60</v>
-      </c>
-      <c r="G5" s="1" t="s">
-        <v>61</v>
-      </c>
-      <c r="H5" s="1" t="s">
-        <v>62</v>
-      </c>
       <c r="I5" s="3" t="s">
-        <v>63</v>
+        <v>72</v>
       </c>
       <c r="J5" s="1" t="s">
-        <v>64</v>
+        <v>73</v>
       </c>
       <c r="K5" s="1" t="s">
-        <v>65</v>
+        <v>74</v>
       </c>
       <c r="L5" s="1" t="s">
-        <v>66</v>
+        <v>75</v>
       </c>
       <c r="M5" s="1" t="s">
-        <v>66</v>
+        <v>75</v>
       </c>
       <c r="N5" s="1" t="s">
-        <v>66</v>
+        <v>75</v>
       </c>
       <c r="O5" s="1" t="s">
-        <v>73</v>
+        <v>82</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="6" customHeight="1" ht="21">
       <c r="A6" s="1" t="s">
-        <v>57</v>
+        <v>66</v>
       </c>
       <c r="B6" s="1" t="s">
+        <v>80</v>
+      </c>
+      <c r="C6" s="1" t="s">
+        <v>67</v>
+      </c>
+      <c r="D6" s="25"/>
+      <c r="E6" s="1" t="s">
+        <v>68</v>
+      </c>
+      <c r="F6" s="1" t="s">
+        <v>69</v>
+      </c>
+      <c r="G6" s="1" t="s">
+        <v>70</v>
+      </c>
+      <c r="H6" s="1" t="s">
         <v>71</v>
       </c>
-      <c r="C6" s="1" t="s">
-        <v>58</v>
-      </c>
-      <c r="D6" s="24"/>
-      <c r="E6" s="1" t="s">
-        <v>59</v>
-      </c>
-      <c r="F6" s="1" t="s">
-        <v>60</v>
-      </c>
-      <c r="G6" s="1" t="s">
-        <v>61</v>
-      </c>
-      <c r="H6" s="1" t="s">
-        <v>62</v>
-      </c>
       <c r="I6" s="3" t="s">
-        <v>63</v>
+        <v>72</v>
       </c>
       <c r="J6" s="1" t="s">
-        <v>64</v>
+        <v>73</v>
       </c>
       <c r="K6" s="1" t="s">
-        <v>65</v>
+        <v>74</v>
       </c>
       <c r="L6" s="1" t="s">
-        <v>66</v>
+        <v>75</v>
       </c>
       <c r="M6" s="1" t="s">
-        <v>66</v>
+        <v>75</v>
       </c>
       <c r="N6" s="1" t="s">
-        <v>66</v>
+        <v>75</v>
       </c>
       <c r="O6" s="1" t="s">
-        <v>74</v>
+        <v>83</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="7" customHeight="1" ht="21">
       <c r="A7" s="1" t="s">
-        <v>57</v>
+        <v>66</v>
       </c>
       <c r="B7" s="1" t="s">
+        <v>80</v>
+      </c>
+      <c r="C7" s="1" t="s">
+        <v>67</v>
+      </c>
+      <c r="D7" s="25" t="s">
+        <v>84</v>
+      </c>
+      <c r="E7" s="1" t="s">
+        <v>68</v>
+      </c>
+      <c r="F7" s="1" t="s">
+        <v>69</v>
+      </c>
+      <c r="G7" s="1" t="s">
+        <v>70</v>
+      </c>
+      <c r="H7" s="1" t="s">
         <v>71</v>
       </c>
-      <c r="C7" s="1" t="s">
-        <v>58</v>
-      </c>
-      <c r="D7" s="24" t="s">
-        <v>75</v>
-      </c>
-      <c r="E7" s="1" t="s">
-        <v>59</v>
-      </c>
-      <c r="F7" s="1" t="s">
-        <v>60</v>
-      </c>
-      <c r="G7" s="1" t="s">
-        <v>61</v>
-      </c>
-      <c r="H7" s="1" t="s">
-        <v>62</v>
-      </c>
       <c r="I7" s="3" t="s">
-        <v>63</v>
+        <v>72</v>
       </c>
       <c r="J7" s="1" t="s">
-        <v>64</v>
+        <v>73</v>
       </c>
       <c r="K7" s="1" t="s">
-        <v>65</v>
+        <v>74</v>
       </c>
       <c r="L7" s="1" t="s">
-        <v>66</v>
+        <v>75</v>
       </c>
       <c r="M7" s="1" t="s">
-        <v>66</v>
+        <v>75</v>
       </c>
       <c r="N7" s="1" t="s">
-        <v>66</v>
+        <v>75</v>
       </c>
       <c r="O7" s="1" t="s">
-        <v>76</v>
+        <v>85</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="8" customHeight="1" ht="21">
       <c r="A8" s="1" t="s">
-        <v>57</v>
+        <v>66</v>
       </c>
       <c r="B8" s="1" t="s">
-        <v>71</v>
+        <v>80</v>
       </c>
       <c r="C8" s="1" t="s">
-        <v>58</v>
+        <v>67</v>
       </c>
       <c r="D8" s="7">
         <v>-1</v>
       </c>
       <c r="E8" s="1" t="s">
-        <v>59</v>
+        <v>68</v>
       </c>
       <c r="F8" s="1" t="s">
-        <v>60</v>
+        <v>69</v>
       </c>
       <c r="G8" s="1" t="s">
-        <v>61</v>
+        <v>70</v>
       </c>
       <c r="H8" s="1" t="s">
-        <v>62</v>
+        <v>71</v>
       </c>
       <c r="I8" s="3" t="s">
-        <v>63</v>
+        <v>72</v>
       </c>
       <c r="J8" s="1" t="s">
-        <v>64</v>
+        <v>73</v>
       </c>
       <c r="K8" s="1" t="s">
-        <v>65</v>
+        <v>74</v>
       </c>
       <c r="L8" s="1" t="s">
-        <v>66</v>
+        <v>75</v>
       </c>
       <c r="M8" s="1" t="s">
-        <v>66</v>
+        <v>75</v>
       </c>
       <c r="N8" s="1" t="s">
-        <v>66</v>
+        <v>75</v>
       </c>
       <c r="O8" s="1" t="s">
-        <v>76</v>
+        <v>85</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="9" customHeight="1" ht="21">
       <c r="A9" s="1" t="s">
-        <v>57</v>
+        <v>66</v>
       </c>
       <c r="B9" s="1" t="s">
-        <v>71</v>
+        <v>80</v>
       </c>
       <c r="C9" s="1" t="s">
-        <v>58</v>
-      </c>
-      <c r="D9" s="21">
+        <v>67</v>
+      </c>
+      <c r="D9" s="22">
         <v>100</v>
       </c>
       <c r="E9" s="4"/>
       <c r="F9" s="1" t="s">
-        <v>60</v>
+        <v>69</v>
       </c>
       <c r="G9" s="1" t="s">
-        <v>61</v>
+        <v>70</v>
       </c>
       <c r="H9" s="1" t="s">
-        <v>62</v>
+        <v>71</v>
       </c>
       <c r="I9" s="3" t="s">
-        <v>63</v>
+        <v>72</v>
       </c>
       <c r="J9" s="1" t="s">
-        <v>64</v>
+        <v>73</v>
       </c>
       <c r="K9" s="1" t="s">
-        <v>65</v>
+        <v>74</v>
       </c>
       <c r="L9" s="1" t="s">
-        <v>66</v>
+        <v>75</v>
       </c>
       <c r="M9" s="1" t="s">
-        <v>66</v>
+        <v>75</v>
       </c>
       <c r="N9" s="1" t="s">
-        <v>66</v>
+        <v>75</v>
       </c>
       <c r="O9" s="1" t="s">
-        <v>77</v>
+        <v>86</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="10" customHeight="1" ht="21">
       <c r="A10" s="1" t="s">
-        <v>57</v>
+        <v>66</v>
       </c>
       <c r="B10" s="1" t="s">
+        <v>80</v>
+      </c>
+      <c r="C10" s="1" t="s">
+        <v>67</v>
+      </c>
+      <c r="D10" s="22">
+        <v>100</v>
+      </c>
+      <c r="E10" s="4" t="s">
+        <v>87</v>
+      </c>
+      <c r="F10" s="1" t="s">
+        <v>69</v>
+      </c>
+      <c r="G10" s="1" t="s">
+        <v>70</v>
+      </c>
+      <c r="H10" s="1" t="s">
         <v>71</v>
       </c>
-      <c r="C10" s="1" t="s">
-        <v>58</v>
-      </c>
-      <c r="D10" s="21">
-        <v>100</v>
-      </c>
-      <c r="E10" s="4" t="s">
-        <v>78</v>
-      </c>
-      <c r="F10" s="1" t="s">
-        <v>60</v>
-      </c>
-      <c r="G10" s="1" t="s">
-        <v>61</v>
-      </c>
-      <c r="H10" s="1" t="s">
-        <v>62</v>
-      </c>
       <c r="I10" s="3" t="s">
-        <v>63</v>
+        <v>72</v>
       </c>
       <c r="J10" s="1" t="s">
-        <v>64</v>
+        <v>73</v>
       </c>
       <c r="K10" s="1" t="s">
-        <v>65</v>
+        <v>74</v>
       </c>
       <c r="L10" s="1" t="s">
-        <v>66</v>
+        <v>75</v>
       </c>
       <c r="M10" s="1" t="s">
-        <v>66</v>
+        <v>75</v>
       </c>
       <c r="N10" s="1" t="s">
-        <v>66</v>
+        <v>75</v>
       </c>
       <c r="O10" s="1" t="s">
-        <v>79</v>
+        <v>88</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="11" customHeight="1" ht="21">
       <c r="A11" s="1" t="s">
-        <v>57</v>
+        <v>66</v>
       </c>
       <c r="B11" s="1" t="s">
-        <v>71</v>
+        <v>80</v>
       </c>
       <c r="C11" s="1" t="s">
-        <v>58</v>
-      </c>
-      <c r="D11" s="21">
+        <v>67</v>
+      </c>
+      <c r="D11" s="22">
         <v>100</v>
       </c>
       <c r="E11" s="1" t="s">
-        <v>59</v>
+        <v>68</v>
       </c>
       <c r="F11" s="4"/>
       <c r="G11" s="1" t="s">
-        <v>61</v>
+        <v>70</v>
       </c>
       <c r="H11" s="1" t="s">
-        <v>62</v>
+        <v>71</v>
       </c>
       <c r="I11" s="3" t="s">
-        <v>63</v>
+        <v>72</v>
       </c>
       <c r="J11" s="1" t="s">
-        <v>64</v>
+        <v>73</v>
       </c>
       <c r="K11" s="1" t="s">
-        <v>65</v>
+        <v>74</v>
       </c>
       <c r="L11" s="1" t="s">
-        <v>66</v>
+        <v>75</v>
       </c>
       <c r="M11" s="1" t="s">
-        <v>66</v>
+        <v>75</v>
       </c>
       <c r="N11" s="1" t="s">
-        <v>66</v>
+        <v>75</v>
       </c>
       <c r="O11" s="1" t="s">
-        <v>80</v>
+        <v>89</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="12" customHeight="1" ht="21">
       <c r="A12" s="1" t="s">
-        <v>57</v>
+        <v>66</v>
       </c>
       <c r="B12" s="1" t="s">
+        <v>80</v>
+      </c>
+      <c r="C12" s="1" t="s">
+        <v>67</v>
+      </c>
+      <c r="D12" s="22">
+        <v>100</v>
+      </c>
+      <c r="E12" s="1" t="s">
+        <v>68</v>
+      </c>
+      <c r="F12" s="4" t="s">
+        <v>87</v>
+      </c>
+      <c r="G12" s="1" t="s">
+        <v>70</v>
+      </c>
+      <c r="H12" s="1" t="s">
         <v>71</v>
       </c>
-      <c r="C12" s="1" t="s">
-        <v>58</v>
-      </c>
-      <c r="D12" s="21">
-        <v>100</v>
-      </c>
-      <c r="E12" s="1" t="s">
-        <v>59</v>
-      </c>
-      <c r="F12" s="4" t="s">
-        <v>78</v>
-      </c>
-      <c r="G12" s="1" t="s">
-        <v>61</v>
-      </c>
-      <c r="H12" s="1" t="s">
-        <v>62</v>
-      </c>
       <c r="I12" s="3" t="s">
-        <v>63</v>
+        <v>72</v>
       </c>
       <c r="J12" s="1" t="s">
-        <v>64</v>
+        <v>73</v>
       </c>
       <c r="K12" s="1" t="s">
-        <v>65</v>
+        <v>74</v>
       </c>
       <c r="L12" s="1" t="s">
-        <v>66</v>
+        <v>75</v>
       </c>
       <c r="M12" s="1" t="s">
-        <v>66</v>
+        <v>75</v>
       </c>
       <c r="N12" s="1" t="s">
-        <v>66</v>
+        <v>75</v>
       </c>
       <c r="O12" s="1" t="s">
-        <v>81</v>
+        <v>90</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="13" customHeight="1" ht="21">
       <c r="A13" s="1" t="s">
-        <v>57</v>
+        <v>66</v>
       </c>
       <c r="B13" s="1" t="s">
-        <v>71</v>
+        <v>80</v>
       </c>
       <c r="C13" s="1" t="s">
-        <v>58</v>
-      </c>
-      <c r="D13" s="21">
+        <v>67</v>
+      </c>
+      <c r="D13" s="22">
         <v>100</v>
       </c>
       <c r="E13" s="1" t="s">
-        <v>59</v>
+        <v>68</v>
       </c>
       <c r="F13" s="1" t="s">
-        <v>60</v>
+        <v>69</v>
       </c>
       <c r="G13" s="4"/>
       <c r="H13" s="1" t="s">
-        <v>62</v>
+        <v>71</v>
       </c>
       <c r="I13" s="3" t="s">
-        <v>63</v>
+        <v>72</v>
       </c>
       <c r="J13" s="1" t="s">
-        <v>64</v>
+        <v>73</v>
       </c>
       <c r="K13" s="1" t="s">
-        <v>65</v>
+        <v>74</v>
       </c>
       <c r="L13" s="1" t="s">
-        <v>66</v>
+        <v>75</v>
       </c>
       <c r="M13" s="1" t="s">
-        <v>66</v>
+        <v>75</v>
       </c>
       <c r="N13" s="1" t="s">
-        <v>66</v>
+        <v>75</v>
       </c>
       <c r="O13" s="1" t="s">
-        <v>82</v>
+        <v>91</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="14" customHeight="1" ht="21">
       <c r="A14" s="1" t="s">
-        <v>57</v>
+        <v>66</v>
       </c>
       <c r="B14" s="1" t="s">
+        <v>80</v>
+      </c>
+      <c r="C14" s="1" t="s">
+        <v>67</v>
+      </c>
+      <c r="D14" s="22">
+        <v>100</v>
+      </c>
+      <c r="E14" s="1" t="s">
+        <v>68</v>
+      </c>
+      <c r="F14" s="1" t="s">
+        <v>69</v>
+      </c>
+      <c r="G14" s="4" t="s">
+        <v>87</v>
+      </c>
+      <c r="H14" s="1" t="s">
         <v>71</v>
       </c>
-      <c r="C14" s="1" t="s">
-        <v>58</v>
-      </c>
-      <c r="D14" s="21">
-        <v>100</v>
-      </c>
-      <c r="E14" s="1" t="s">
-        <v>59</v>
-      </c>
-      <c r="F14" s="1" t="s">
-        <v>60</v>
-      </c>
-      <c r="G14" s="4" t="s">
-        <v>78</v>
-      </c>
-      <c r="H14" s="1" t="s">
-        <v>62</v>
-      </c>
       <c r="I14" s="3" t="s">
-        <v>63</v>
+        <v>72</v>
       </c>
       <c r="J14" s="1" t="s">
-        <v>64</v>
+        <v>73</v>
       </c>
       <c r="K14" s="1" t="s">
-        <v>65</v>
+        <v>74</v>
       </c>
       <c r="L14" s="1" t="s">
-        <v>66</v>
+        <v>75</v>
       </c>
       <c r="M14" s="1" t="s">
-        <v>66</v>
+        <v>75</v>
       </c>
       <c r="N14" s="1" t="s">
-        <v>66</v>
+        <v>75</v>
       </c>
       <c r="O14" s="1" t="s">
-        <v>83</v>
+        <v>92</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="15" customHeight="1" ht="21">
       <c r="A15" s="1" t="s">
-        <v>57</v>
+        <v>66</v>
       </c>
       <c r="B15" s="1" t="s">
-        <v>71</v>
+        <v>80</v>
       </c>
       <c r="C15" s="1" t="s">
-        <v>58</v>
-      </c>
-      <c r="D15" s="21">
+        <v>67</v>
+      </c>
+      <c r="D15" s="22">
         <v>100</v>
       </c>
       <c r="E15" s="1" t="s">
-        <v>59</v>
+        <v>68</v>
       </c>
       <c r="F15" s="1" t="s">
-        <v>60</v>
+        <v>69</v>
       </c>
       <c r="G15" s="1" t="s">
-        <v>61</v>
+        <v>70</v>
       </c>
       <c r="H15" s="4"/>
       <c r="I15" s="3" t="s">
-        <v>63</v>
+        <v>72</v>
       </c>
       <c r="J15" s="1" t="s">
-        <v>64</v>
+        <v>73</v>
       </c>
       <c r="K15" s="1" t="s">
-        <v>65</v>
+        <v>74</v>
       </c>
       <c r="L15" s="1" t="s">
-        <v>66</v>
+        <v>75</v>
       </c>
       <c r="M15" s="1" t="s">
-        <v>66</v>
+        <v>75</v>
       </c>
       <c r="N15" s="1" t="s">
-        <v>66</v>
+        <v>75</v>
       </c>
       <c r="O15" s="1" t="s">
-        <v>84</v>
+        <v>93</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="16" customHeight="1" ht="21">
       <c r="A16" s="1" t="s">
-        <v>57</v>
+        <v>66</v>
       </c>
       <c r="B16" s="1" t="s">
-        <v>71</v>
+        <v>80</v>
       </c>
       <c r="C16" s="1" t="s">
-        <v>58</v>
-      </c>
-      <c r="D16" s="21">
+        <v>67</v>
+      </c>
+      <c r="D16" s="22">
         <v>100</v>
       </c>
       <c r="E16" s="1" t="s">
-        <v>59</v>
+        <v>68</v>
       </c>
       <c r="F16" s="1" t="s">
-        <v>60</v>
+        <v>69</v>
       </c>
       <c r="G16" s="1" t="s">
-        <v>61</v>
+        <v>70</v>
       </c>
       <c r="H16" s="4" t="s">
-        <v>78</v>
+        <v>87</v>
       </c>
       <c r="I16" s="3" t="s">
-        <v>63</v>
+        <v>72</v>
       </c>
       <c r="J16" s="1" t="s">
-        <v>64</v>
+        <v>73</v>
       </c>
       <c r="K16" s="1" t="s">
-        <v>65</v>
+        <v>74</v>
       </c>
       <c r="L16" s="1" t="s">
-        <v>66</v>
+        <v>75</v>
       </c>
       <c r="M16" s="1" t="s">
-        <v>66</v>
+        <v>75</v>
       </c>
       <c r="N16" s="1" t="s">
-        <v>66</v>
+        <v>75</v>
       </c>
       <c r="O16" s="1" t="s">
-        <v>85</v>
+        <v>94</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="17" customHeight="1" ht="21">
       <c r="A17" s="1" t="s">
-        <v>57</v>
+        <v>66</v>
       </c>
       <c r="B17" s="1" t="s">
+        <v>80</v>
+      </c>
+      <c r="C17" s="1" t="s">
+        <v>67</v>
+      </c>
+      <c r="D17" s="22">
+        <v>100</v>
+      </c>
+      <c r="E17" s="1" t="s">
+        <v>68</v>
+      </c>
+      <c r="F17" s="1" t="s">
+        <v>69</v>
+      </c>
+      <c r="G17" s="1" t="s">
+        <v>70</v>
+      </c>
+      <c r="H17" s="1" t="s">
         <v>71</v>
       </c>
-      <c r="C17" s="1" t="s">
-        <v>58</v>
-      </c>
-      <c r="D17" s="21">
-        <v>100</v>
-      </c>
-      <c r="E17" s="1" t="s">
-        <v>59</v>
-      </c>
-      <c r="F17" s="1" t="s">
-        <v>60</v>
-      </c>
-      <c r="G17" s="1" t="s">
-        <v>61</v>
-      </c>
-      <c r="H17" s="1" t="s">
-        <v>62</v>
-      </c>
-      <c r="I17" s="24"/>
+      <c r="I17" s="25"/>
       <c r="J17" s="1" t="s">
-        <v>64</v>
+        <v>73</v>
       </c>
       <c r="K17" s="1" t="s">
-        <v>65</v>
+        <v>74</v>
       </c>
       <c r="L17" s="1" t="s">
-        <v>66</v>
+        <v>75</v>
       </c>
       <c r="M17" s="1" t="s">
-        <v>66</v>
+        <v>75</v>
       </c>
       <c r="N17" s="1" t="s">
-        <v>66</v>
+        <v>75</v>
       </c>
       <c r="O17" s="1" t="s">
-        <v>86</v>
+        <v>95</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="18" customHeight="1" ht="21">
       <c r="A18" s="1" t="s">
-        <v>57</v>
+        <v>66</v>
       </c>
       <c r="B18" s="1" t="s">
+        <v>80</v>
+      </c>
+      <c r="C18" s="1" t="s">
+        <v>67</v>
+      </c>
+      <c r="D18" s="22">
+        <v>100</v>
+      </c>
+      <c r="E18" s="1" t="s">
+        <v>68</v>
+      </c>
+      <c r="F18" s="1" t="s">
+        <v>69</v>
+      </c>
+      <c r="G18" s="1" t="s">
+        <v>70</v>
+      </c>
+      <c r="H18" s="1" t="s">
         <v>71</v>
       </c>
-      <c r="C18" s="1" t="s">
-        <v>58</v>
-      </c>
-      <c r="D18" s="21">
-        <v>100</v>
-      </c>
-      <c r="E18" s="1" t="s">
-        <v>59</v>
-      </c>
-      <c r="F18" s="1" t="s">
-        <v>60</v>
-      </c>
-      <c r="G18" s="1" t="s">
-        <v>61</v>
-      </c>
-      <c r="H18" s="1" t="s">
-        <v>62</v>
-      </c>
       <c r="I18" s="3" t="s">
-        <v>63</v>
+        <v>72</v>
       </c>
       <c r="J18" s="4"/>
       <c r="K18" s="1" t="s">
-        <v>65</v>
+        <v>74</v>
       </c>
       <c r="L18" s="1" t="s">
-        <v>66</v>
+        <v>75</v>
       </c>
       <c r="M18" s="1" t="s">
-        <v>66</v>
+        <v>75</v>
       </c>
       <c r="N18" s="1" t="s">
-        <v>66</v>
+        <v>75</v>
       </c>
       <c r="O18" s="1" t="s">
-        <v>87</v>
+        <v>96</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="19" customHeight="1" ht="17.25">
       <c r="A19" s="1" t="s">
-        <v>57</v>
+        <v>66</v>
       </c>
       <c r="B19" s="1" t="s">
+        <v>80</v>
+      </c>
+      <c r="C19" s="1" t="s">
+        <v>67</v>
+      </c>
+      <c r="D19" s="22">
+        <v>100</v>
+      </c>
+      <c r="E19" s="1" t="s">
+        <v>68</v>
+      </c>
+      <c r="F19" s="1" t="s">
+        <v>69</v>
+      </c>
+      <c r="G19" s="1" t="s">
+        <v>70</v>
+      </c>
+      <c r="H19" s="1" t="s">
         <v>71</v>
       </c>
-      <c r="C19" s="1" t="s">
-        <v>58</v>
-      </c>
-      <c r="D19" s="21">
-        <v>100</v>
-      </c>
-      <c r="E19" s="1" t="s">
-        <v>59</v>
-      </c>
-      <c r="F19" s="1" t="s">
-        <v>60</v>
-      </c>
-      <c r="G19" s="1" t="s">
-        <v>61</v>
-      </c>
-      <c r="H19" s="1" t="s">
-        <v>62</v>
-      </c>
       <c r="I19" s="3" t="s">
-        <v>63</v>
+        <v>72</v>
       </c>
       <c r="J19" s="1" t="s">
-        <v>64</v>
+        <v>73</v>
       </c>
       <c r="K19" s="4"/>
       <c r="L19" s="1" t="s">
-        <v>66</v>
+        <v>75</v>
       </c>
       <c r="M19" s="1" t="s">
-        <v>66</v>
+        <v>75</v>
       </c>
       <c r="N19" s="1" t="s">
-        <v>66</v>
+        <v>75</v>
       </c>
       <c r="O19" s="1" t="s">
-        <v>88</v>
+        <v>97</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="20" customHeight="1" ht="17.25">
       <c r="A20" s="1" t="s">
-        <v>57</v>
+        <v>66</v>
       </c>
       <c r="B20" s="1" t="s">
+        <v>80</v>
+      </c>
+      <c r="C20" s="1" t="s">
+        <v>67</v>
+      </c>
+      <c r="D20" s="22">
+        <v>100</v>
+      </c>
+      <c r="E20" s="1" t="s">
+        <v>68</v>
+      </c>
+      <c r="F20" s="1" t="s">
+        <v>69</v>
+      </c>
+      <c r="G20" s="1" t="s">
+        <v>70</v>
+      </c>
+      <c r="H20" s="1" t="s">
         <v>71</v>
       </c>
-      <c r="C20" s="1" t="s">
-        <v>58</v>
-      </c>
-      <c r="D20" s="21">
-        <v>100</v>
-      </c>
-      <c r="E20" s="1" t="s">
-        <v>59</v>
-      </c>
-      <c r="F20" s="1" t="s">
-        <v>60</v>
-      </c>
-      <c r="G20" s="1" t="s">
-        <v>61</v>
-      </c>
-      <c r="H20" s="1" t="s">
-        <v>62</v>
-      </c>
       <c r="I20" s="3" t="s">
-        <v>63</v>
+        <v>72</v>
       </c>
       <c r="J20" s="1" t="s">
-        <v>64</v>
+        <v>73</v>
       </c>
       <c r="K20" s="1" t="s">
-        <v>65</v>
+        <v>74</v>
       </c>
       <c r="L20" s="4"/>
       <c r="M20" s="1" t="s">
-        <v>66</v>
+        <v>75</v>
       </c>
       <c r="N20" s="1" t="s">
-        <v>66</v>
+        <v>75</v>
       </c>
       <c r="O20" s="1" t="s">
-        <v>89</v>
+        <v>98</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="21" customHeight="1" ht="17.25">
       <c r="A21" s="1" t="s">
-        <v>57</v>
+        <v>66</v>
       </c>
       <c r="B21" s="1" t="s">
+        <v>80</v>
+      </c>
+      <c r="C21" s="1" t="s">
+        <v>67</v>
+      </c>
+      <c r="D21" s="22">
+        <v>100</v>
+      </c>
+      <c r="E21" s="1" t="s">
+        <v>68</v>
+      </c>
+      <c r="F21" s="1" t="s">
+        <v>69</v>
+      </c>
+      <c r="G21" s="1" t="s">
+        <v>70</v>
+      </c>
+      <c r="H21" s="1" t="s">
         <v>71</v>
       </c>
-      <c r="C21" s="1" t="s">
-        <v>58</v>
-      </c>
-      <c r="D21" s="21">
-        <v>100</v>
-      </c>
-      <c r="E21" s="1" t="s">
-        <v>59</v>
-      </c>
-      <c r="F21" s="1" t="s">
-        <v>60</v>
-      </c>
-      <c r="G21" s="1" t="s">
-        <v>61</v>
-      </c>
-      <c r="H21" s="1" t="s">
-        <v>62</v>
-      </c>
       <c r="I21" s="3" t="s">
-        <v>63</v>
+        <v>72</v>
       </c>
       <c r="J21" s="1" t="s">
-        <v>64</v>
+        <v>73</v>
       </c>
       <c r="K21" s="1" t="s">
-        <v>65</v>
+        <v>74</v>
       </c>
       <c r="L21" s="1" t="s">
-        <v>66</v>
+        <v>75</v>
       </c>
       <c r="M21" s="4"/>
       <c r="N21" s="4"/>
       <c r="O21" s="1" t="s">
-        <v>90</v>
+        <v>99</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="22" customHeight="1" ht="17.25">
       <c r="A22" s="4"/>
       <c r="B22" s="1" t="s">
+        <v>80</v>
+      </c>
+      <c r="C22" s="1" t="s">
+        <v>67</v>
+      </c>
+      <c r="D22" s="22">
+        <v>100</v>
+      </c>
+      <c r="E22" s="1" t="s">
+        <v>68</v>
+      </c>
+      <c r="F22" s="1" t="s">
+        <v>69</v>
+      </c>
+      <c r="G22" s="1" t="s">
+        <v>70</v>
+      </c>
+      <c r="H22" s="1" t="s">
         <v>71</v>
       </c>
-      <c r="C22" s="1" t="s">
-        <v>58</v>
-      </c>
-      <c r="D22" s="21">
+      <c r="I22" s="3" t="s">
+        <v>72</v>
+      </c>
+      <c r="J22" s="1" t="s">
+        <v>73</v>
+      </c>
+      <c r="K22" s="1" t="s">
+        <v>74</v>
+      </c>
+      <c r="L22" s="1" t="s">
+        <v>75</v>
+      </c>
+      <c r="M22" s="1" t="s">
+        <v>75</v>
+      </c>
+      <c r="N22" s="1" t="s">
+        <v>75</v>
+      </c>
+      <c r="O22" s="1" t="s">
         <v>100</v>
-      </c>
-      <c r="E22" s="1" t="s">
-        <v>59</v>
-      </c>
-      <c r="F22" s="1" t="s">
-        <v>60</v>
-      </c>
-      <c r="G22" s="1" t="s">
-        <v>61</v>
-      </c>
-      <c r="H22" s="1" t="s">
-        <v>62</v>
-      </c>
-      <c r="I22" s="3" t="s">
-        <v>63</v>
-      </c>
-      <c r="J22" s="1" t="s">
-        <v>64</v>
-      </c>
-      <c r="K22" s="1" t="s">
-        <v>65</v>
-      </c>
-      <c r="L22" s="1" t="s">
-        <v>66</v>
-      </c>
-      <c r="M22" s="1" t="s">
-        <v>66</v>
-      </c>
-      <c r="N22" s="1" t="s">
-        <v>66</v>
-      </c>
-      <c r="O22" s="1" t="s">
-        <v>91</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="23" customHeight="1" ht="17.25">
       <c r="A23" s="4" t="s">
-        <v>28</v>
+        <v>31</v>
       </c>
       <c r="B23" s="1" t="s">
+        <v>80</v>
+      </c>
+      <c r="C23" s="1" t="s">
+        <v>67</v>
+      </c>
+      <c r="D23" s="22">
+        <v>100</v>
+      </c>
+      <c r="E23" s="1" t="s">
+        <v>68</v>
+      </c>
+      <c r="F23" s="1" t="s">
+        <v>69</v>
+      </c>
+      <c r="G23" s="1" t="s">
+        <v>70</v>
+      </c>
+      <c r="H23" s="1" t="s">
         <v>71</v>
       </c>
-      <c r="C23" s="1" t="s">
-        <v>58</v>
-      </c>
-      <c r="D23" s="21">
-        <v>100</v>
-      </c>
-      <c r="E23" s="1" t="s">
-        <v>59</v>
-      </c>
-      <c r="F23" s="1" t="s">
-        <v>60</v>
-      </c>
-      <c r="G23" s="1" t="s">
-        <v>61</v>
-      </c>
-      <c r="H23" s="1" t="s">
-        <v>62</v>
-      </c>
       <c r="I23" s="3" t="s">
-        <v>63</v>
+        <v>72</v>
       </c>
       <c r="J23" s="1" t="s">
-        <v>64</v>
+        <v>73</v>
       </c>
       <c r="K23" s="1" t="s">
-        <v>65</v>
+        <v>74</v>
       </c>
       <c r="L23" s="1" t="s">
-        <v>66</v>
+        <v>75</v>
       </c>
       <c r="M23" s="1" t="s">
-        <v>66</v>
+        <v>75</v>
       </c>
       <c r="N23" s="1" t="s">
-        <v>66</v>
+        <v>75</v>
       </c>
       <c r="O23" s="1" t="s">
-        <v>92</v>
+        <v>101</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="24" customHeight="1" ht="17.25">
       <c r="A24" s="1" t="s">
-        <v>57</v>
+        <v>66</v>
       </c>
       <c r="B24" s="1" t="s">
+        <v>80</v>
+      </c>
+      <c r="C24" s="1" t="s">
+        <v>67</v>
+      </c>
+      <c r="D24" s="22">
+        <v>100</v>
+      </c>
+      <c r="E24" s="1" t="s">
+        <v>68</v>
+      </c>
+      <c r="F24" s="1" t="s">
+        <v>69</v>
+      </c>
+      <c r="G24" s="1" t="s">
+        <v>70</v>
+      </c>
+      <c r="H24" s="1" t="s">
         <v>71</v>
-      </c>
-      <c r="C24" s="1" t="s">
-        <v>58</v>
-      </c>
-      <c r="D24" s="21">
-        <v>100</v>
-      </c>
-      <c r="E24" s="1" t="s">
-        <v>59</v>
-      </c>
-      <c r="F24" s="1" t="s">
-        <v>60</v>
-      </c>
-      <c r="G24" s="1" t="s">
-        <v>61</v>
-      </c>
-      <c r="H24" s="1" t="s">
-        <v>62</v>
       </c>
       <c r="I24" s="7">
         <v>0</v>
       </c>
       <c r="J24" s="1" t="s">
-        <v>64</v>
+        <v>73</v>
       </c>
       <c r="K24" s="1" t="s">
-        <v>65</v>
+        <v>74</v>
       </c>
       <c r="L24" s="1" t="s">
-        <v>66</v>
+        <v>75</v>
       </c>
       <c r="M24" s="1" t="s">
-        <v>66</v>
+        <v>75</v>
       </c>
       <c r="N24" s="1" t="s">
-        <v>66</v>
+        <v>75</v>
       </c>
       <c r="O24" s="1" t="s">
-        <v>93</v>
+        <v>102</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="25" customHeight="1" ht="17.25">
       <c r="A25" s="1" t="s">
-        <v>57</v>
+        <v>66</v>
       </c>
       <c r="B25" s="1" t="s">
+        <v>80</v>
+      </c>
+      <c r="C25" s="1" t="s">
+        <v>67</v>
+      </c>
+      <c r="D25" s="22">
+        <v>100</v>
+      </c>
+      <c r="E25" s="1" t="s">
+        <v>68</v>
+      </c>
+      <c r="F25" s="1" t="s">
+        <v>69</v>
+      </c>
+      <c r="G25" s="1" t="s">
+        <v>70</v>
+      </c>
+      <c r="H25" s="1" t="s">
         <v>71</v>
       </c>
-      <c r="C25" s="1" t="s">
-        <v>58</v>
-      </c>
-      <c r="D25" s="21">
-        <v>100</v>
-      </c>
-      <c r="E25" s="1" t="s">
-        <v>59</v>
-      </c>
-      <c r="F25" s="1" t="s">
-        <v>60</v>
-      </c>
-      <c r="G25" s="1" t="s">
-        <v>61</v>
-      </c>
-      <c r="H25" s="1" t="s">
-        <v>62</v>
-      </c>
       <c r="I25" s="3" t="s">
-        <v>63</v>
+        <v>72</v>
       </c>
       <c r="J25" s="4" t="s">
-        <v>94</v>
+        <v>103</v>
       </c>
       <c r="K25" s="1" t="s">
-        <v>65</v>
+        <v>74</v>
       </c>
       <c r="L25" s="1" t="s">
-        <v>66</v>
+        <v>75</v>
       </c>
       <c r="M25" s="1" t="s">
-        <v>66</v>
+        <v>75</v>
       </c>
       <c r="N25" s="1" t="s">
-        <v>66</v>
+        <v>75</v>
       </c>
       <c r="O25" s="1" t="s">
-        <v>95</v>
+        <v>104</v>
       </c>
     </row>
   </sheetData>
@@ -3476,14 +3506,14 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" style="14" width="12.43357142857143" customWidth="1" bestFit="1"/>
-    <col min="2" max="2" style="14" width="12.43357142857143" customWidth="1" bestFit="1"/>
-    <col min="3" max="3" style="15" width="12.43357142857143" customWidth="1" bestFit="1"/>
-    <col min="4" max="4" style="14" width="12.43357142857143" customWidth="1" bestFit="1"/>
-    <col min="5" max="5" style="14" width="12.43357142857143" customWidth="1" bestFit="1"/>
-    <col min="6" max="6" style="14" width="17.290714285714284" customWidth="1" bestFit="1"/>
-    <col min="7" max="7" style="14" width="12.43357142857143" customWidth="1" bestFit="1"/>
-    <col min="8" max="8" style="15" width="12.43357142857143" customWidth="1" bestFit="1"/>
+    <col min="1" max="1" style="15" width="12.43357142857143" customWidth="1" bestFit="1"/>
+    <col min="2" max="2" style="15" width="12.43357142857143" customWidth="1" bestFit="1"/>
+    <col min="3" max="3" style="16" width="12.43357142857143" customWidth="1" bestFit="1"/>
+    <col min="4" max="4" style="15" width="12.43357142857143" customWidth="1" bestFit="1"/>
+    <col min="5" max="5" style="15" width="12.43357142857143" customWidth="1" bestFit="1"/>
+    <col min="6" max="6" style="15" width="17.290714285714284" customWidth="1" bestFit="1"/>
+    <col min="7" max="7" style="15" width="12.43357142857143" customWidth="1" bestFit="1"/>
+    <col min="8" max="8" style="16" width="12.43357142857143" customWidth="1" bestFit="1"/>
   </cols>
   <sheetData>
     <row x14ac:dyDescent="0.25" r="1" customHeight="1" ht="17.25">
@@ -3503,18 +3533,18 @@
         <v>4</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>31</v>
+        <v>37</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>32</v>
+        <v>38</v>
       </c>
       <c r="H1" s="2" t="s">
-        <v>33</v>
+        <v>39</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="2" customHeight="1" ht="17.25">
-      <c r="A2" s="17" t="s">
-        <v>18</v>
+      <c r="A2" s="18" t="s">
+        <v>17</v>
       </c>
       <c r="B2" s="1" t="s">
         <v>10</v>
@@ -3525,22 +3555,22 @@
       <c r="D2" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="E2" s="18" t="s">
-        <v>13</v>
+      <c r="E2" s="19" t="s">
+        <v>41</v>
       </c>
       <c r="F2" s="1" t="s">
-        <v>34</v>
+        <v>42</v>
       </c>
       <c r="G2" s="1" t="s">
-        <v>35</v>
+        <v>43</v>
       </c>
       <c r="H2" s="2" t="s">
-        <v>36</v>
+        <v>44</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="3" customHeight="1" ht="17.25">
-      <c r="A3" s="17" t="s">
-        <v>18</v>
+      <c r="A3" s="18" t="s">
+        <v>17</v>
       </c>
       <c r="B3" s="1" t="s">
         <v>10</v>
@@ -3551,22 +3581,22 @@
       <c r="D3" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="E3" s="18" t="s">
-        <v>40</v>
+      <c r="E3" s="19" t="s">
+        <v>50</v>
       </c>
       <c r="F3" s="1" t="s">
-        <v>34</v>
+        <v>42</v>
       </c>
       <c r="G3" s="1" t="s">
-        <v>35</v>
+        <v>43</v>
       </c>
       <c r="H3" s="2" t="s">
-        <v>36</v>
+        <v>44</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="4" customHeight="1" ht="17.25">
-      <c r="A4" s="17" t="s">
-        <v>18</v>
+      <c r="A4" s="18" t="s">
+        <v>17</v>
       </c>
       <c r="B4" s="1" t="s">
         <v>10</v>
@@ -3577,17 +3607,17 @@
       <c r="D4" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="E4" s="18" t="s">
-        <v>41</v>
+      <c r="E4" s="19" t="s">
+        <v>51</v>
       </c>
       <c r="F4" s="1" t="s">
-        <v>34</v>
+        <v>42</v>
       </c>
       <c r="G4" s="1" t="s">
-        <v>35</v>
+        <v>43</v>
       </c>
       <c r="H4" s="2" t="s">
-        <v>36</v>
+        <v>44</v>
       </c>
     </row>
   </sheetData>
@@ -3606,15 +3636,15 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" style="14" width="12.43357142857143" customWidth="1" bestFit="1"/>
-    <col min="2" max="2" style="14" width="12.43357142857143" customWidth="1" bestFit="1"/>
-    <col min="3" max="3" style="15" width="12.43357142857143" customWidth="1" bestFit="1"/>
-    <col min="4" max="4" style="14" width="12.43357142857143" customWidth="1" bestFit="1"/>
-    <col min="5" max="5" style="14" width="12.43357142857143" customWidth="1" bestFit="1"/>
-    <col min="6" max="6" style="14" width="17.290714285714284" customWidth="1" bestFit="1"/>
-    <col min="7" max="7" style="14" width="12.43357142857143" customWidth="1" bestFit="1"/>
-    <col min="8" max="8" style="15" width="12.43357142857143" customWidth="1" bestFit="1"/>
-    <col min="9" max="9" style="14" width="39.43357142857143" customWidth="1" bestFit="1"/>
+    <col min="1" max="1" style="15" width="12.43357142857143" customWidth="1" bestFit="1"/>
+    <col min="2" max="2" style="15" width="12.43357142857143" customWidth="1" bestFit="1"/>
+    <col min="3" max="3" style="16" width="12.43357142857143" customWidth="1" bestFit="1"/>
+    <col min="4" max="4" style="15" width="12.43357142857143" customWidth="1" bestFit="1"/>
+    <col min="5" max="5" style="15" width="12.43357142857143" customWidth="1" bestFit="1"/>
+    <col min="6" max="6" style="15" width="17.290714285714284" customWidth="1" bestFit="1"/>
+    <col min="7" max="7" style="15" width="12.43357142857143" customWidth="1" bestFit="1"/>
+    <col min="8" max="8" style="16" width="12.43357142857143" customWidth="1" bestFit="1"/>
+    <col min="9" max="9" style="15" width="39.43357142857143" customWidth="1" bestFit="1"/>
   </cols>
   <sheetData>
     <row x14ac:dyDescent="0.25" r="1" customHeight="1" ht="17.25">
@@ -3634,16 +3664,16 @@
         <v>4</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>31</v>
+        <v>37</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>32</v>
+        <v>38</v>
       </c>
       <c r="H1" s="2" t="s">
-        <v>33</v>
+        <v>39</v>
       </c>
       <c r="I1" s="1" t="s">
-        <v>9</v>
+        <v>40</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="2" customHeight="1" ht="17.25">
@@ -3658,24 +3688,24 @@
         <v>12</v>
       </c>
       <c r="E2" s="1" t="s">
-        <v>13</v>
+        <v>41</v>
       </c>
       <c r="F2" s="1" t="s">
-        <v>34</v>
+        <v>42</v>
       </c>
       <c r="G2" s="1" t="s">
-        <v>35</v>
+        <v>43</v>
       </c>
       <c r="H2" s="2" t="s">
-        <v>36</v>
+        <v>44</v>
       </c>
       <c r="I2" s="6" t="s">
-        <v>15</v>
+        <v>45</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="3" customHeight="1" ht="17.25">
       <c r="A3" s="4" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="B3" s="1" t="s">
         <v>10</v>
@@ -3687,24 +3717,24 @@
         <v>12</v>
       </c>
       <c r="E3" s="1" t="s">
-        <v>13</v>
+        <v>41</v>
       </c>
       <c r="F3" s="1" t="s">
-        <v>34</v>
+        <v>42</v>
       </c>
       <c r="G3" s="1" t="s">
-        <v>35</v>
+        <v>43</v>
       </c>
       <c r="H3" s="2" t="s">
-        <v>36</v>
+        <v>44</v>
       </c>
       <c r="I3" s="6" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="4" customHeight="1" ht="17.25">
       <c r="A4" s="1" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="B4" s="4"/>
       <c r="C4" s="2" t="s">
@@ -3714,24 +3744,24 @@
         <v>12</v>
       </c>
       <c r="E4" s="1" t="s">
-        <v>13</v>
+        <v>41</v>
       </c>
       <c r="F4" s="1" t="s">
-        <v>34</v>
+        <v>42</v>
       </c>
       <c r="G4" s="1" t="s">
-        <v>35</v>
+        <v>43</v>
       </c>
       <c r="H4" s="2" t="s">
-        <v>36</v>
+        <v>44</v>
       </c>
       <c r="I4" s="6" t="s">
-        <v>15</v>
+        <v>45</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="5" customHeight="1" ht="17.25">
       <c r="A5" s="1" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="B5" s="4" t="s">
         <v>19</v>
@@ -3743,16 +3773,16 @@
         <v>12</v>
       </c>
       <c r="E5" s="1" t="s">
-        <v>13</v>
+        <v>41</v>
       </c>
       <c r="F5" s="1" t="s">
-        <v>34</v>
+        <v>42</v>
       </c>
       <c r="G5" s="1" t="s">
-        <v>35</v>
+        <v>43</v>
       </c>
       <c r="H5" s="2" t="s">
-        <v>36</v>
+        <v>44</v>
       </c>
       <c r="I5" s="6" t="s">
         <v>20</v>
@@ -3760,7 +3790,7 @@
     </row>
     <row x14ac:dyDescent="0.25" r="6" customHeight="1" ht="17.25">
       <c r="A6" s="1" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="B6" s="4" t="s">
         <v>21</v>
@@ -3772,16 +3802,16 @@
         <v>12</v>
       </c>
       <c r="E6" s="1" t="s">
-        <v>13</v>
+        <v>41</v>
       </c>
       <c r="F6" s="1" t="s">
-        <v>34</v>
+        <v>42</v>
       </c>
       <c r="G6" s="1" t="s">
-        <v>35</v>
+        <v>43</v>
       </c>
       <c r="H6" s="2" t="s">
-        <v>36</v>
+        <v>44</v>
       </c>
       <c r="I6" s="6" t="s">
         <v>22</v>
@@ -3789,7 +3819,7 @@
     </row>
     <row x14ac:dyDescent="0.25" r="7" customHeight="1" ht="17.25">
       <c r="A7" s="1" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="B7" s="1" t="s">
         <v>10</v>
@@ -3799,82 +3829,82 @@
         <v>12</v>
       </c>
       <c r="E7" s="1" t="s">
-        <v>13</v>
+        <v>41</v>
       </c>
       <c r="F7" s="1" t="s">
-        <v>34</v>
+        <v>42</v>
       </c>
       <c r="G7" s="1" t="s">
-        <v>35</v>
+        <v>43</v>
       </c>
       <c r="H7" s="2" t="s">
-        <v>36</v>
+        <v>44</v>
       </c>
       <c r="I7" s="6" t="s">
-        <v>15</v>
+        <v>45</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="8" customHeight="1" ht="17.25">
       <c r="A8" s="1" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="B8" s="1" t="s">
         <v>10</v>
       </c>
       <c r="C8" s="8" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="D8" s="1" t="s">
         <v>12</v>
       </c>
       <c r="E8" s="1" t="s">
-        <v>13</v>
+        <v>41</v>
       </c>
       <c r="F8" s="1" t="s">
-        <v>34</v>
+        <v>42</v>
       </c>
       <c r="G8" s="1" t="s">
-        <v>35</v>
+        <v>43</v>
       </c>
       <c r="H8" s="2" t="s">
-        <v>36</v>
+        <v>44</v>
       </c>
       <c r="I8" s="6" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="9" customHeight="1" ht="17.25">
       <c r="A9" s="1" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="B9" s="1" t="s">
         <v>10</v>
       </c>
       <c r="C9" s="8" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="D9" s="1" t="s">
         <v>12</v>
       </c>
       <c r="E9" s="1" t="s">
-        <v>13</v>
+        <v>41</v>
       </c>
       <c r="F9" s="1" t="s">
-        <v>34</v>
+        <v>42</v>
       </c>
       <c r="G9" s="1" t="s">
-        <v>35</v>
+        <v>43</v>
       </c>
       <c r="H9" s="2" t="s">
-        <v>36</v>
+        <v>44</v>
       </c>
       <c r="I9" s="6" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="10" customHeight="1" ht="17.25">
       <c r="A10" s="1" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="B10" s="1" t="s">
         <v>10</v>
@@ -3884,24 +3914,24 @@
       </c>
       <c r="D10" s="4"/>
       <c r="E10" s="1" t="s">
-        <v>13</v>
+        <v>41</v>
       </c>
       <c r="F10" s="1" t="s">
-        <v>34</v>
+        <v>42</v>
       </c>
       <c r="G10" s="1" t="s">
-        <v>35</v>
+        <v>43</v>
       </c>
       <c r="H10" s="2" t="s">
-        <v>36</v>
+        <v>44</v>
       </c>
       <c r="I10" s="6" t="s">
-        <v>15</v>
+        <v>45</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="11" customHeight="1" ht="17.25">
       <c r="A11" s="1" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="B11" s="1" t="s">
         <v>10</v>
@@ -3910,27 +3940,27 @@
         <v>11</v>
       </c>
       <c r="D11" s="4" t="s">
-        <v>26</v>
+        <v>28</v>
       </c>
       <c r="E11" s="1" t="s">
-        <v>13</v>
+        <v>41</v>
       </c>
       <c r="F11" s="1" t="s">
-        <v>34</v>
+        <v>42</v>
       </c>
       <c r="G11" s="1" t="s">
-        <v>35</v>
+        <v>43</v>
       </c>
       <c r="H11" s="2" t="s">
-        <v>36</v>
+        <v>44</v>
       </c>
       <c r="I11" s="6" t="s">
-        <v>27</v>
+        <v>29</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="12" customHeight="1" ht="17.25">
       <c r="A12" s="1" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="B12" s="1" t="s">
         <v>10</v>
@@ -3943,21 +3973,21 @@
       </c>
       <c r="E12" s="4"/>
       <c r="F12" s="1" t="s">
-        <v>34</v>
+        <v>42</v>
       </c>
       <c r="G12" s="1" t="s">
-        <v>35</v>
+        <v>43</v>
       </c>
       <c r="H12" s="2" t="s">
-        <v>36</v>
+        <v>44</v>
       </c>
       <c r="I12" s="6" t="s">
-        <v>15</v>
+        <v>45</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="13" customHeight="1" ht="17.25">
       <c r="A13" s="1" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="B13" s="1" t="s">
         <v>10</v>
@@ -3969,22 +3999,22 @@
         <v>12</v>
       </c>
       <c r="E13" s="1" t="s">
-        <v>13</v>
+        <v>41</v>
       </c>
       <c r="F13" s="4"/>
       <c r="G13" s="1" t="s">
-        <v>35</v>
+        <v>43</v>
       </c>
       <c r="H13" s="2" t="s">
-        <v>36</v>
+        <v>44</v>
       </c>
       <c r="I13" s="10" t="s">
-        <v>29</v>
+        <v>46</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="14" customHeight="1" ht="17.25">
       <c r="A14" s="1" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="B14" s="1" t="s">
         <v>10</v>
@@ -3996,24 +4026,24 @@
         <v>12</v>
       </c>
       <c r="E14" s="1" t="s">
-        <v>13</v>
+        <v>41</v>
       </c>
       <c r="F14" s="4" t="s">
-        <v>37</v>
+        <v>47</v>
       </c>
       <c r="G14" s="1" t="s">
-        <v>35</v>
+        <v>43</v>
       </c>
       <c r="H14" s="2" t="s">
-        <v>36</v>
-      </c>
-      <c r="I14" s="12" t="s">
-        <v>29</v>
+        <v>44</v>
+      </c>
+      <c r="I14" s="14" t="s">
+        <v>46</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="15" customHeight="1" ht="17.25">
       <c r="A15" s="1" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="B15" s="1" t="s">
         <v>10</v>
@@ -4025,22 +4055,22 @@
         <v>12</v>
       </c>
       <c r="E15" s="1" t="s">
-        <v>13</v>
+        <v>41</v>
       </c>
       <c r="F15" s="1" t="s">
-        <v>34</v>
+        <v>42</v>
       </c>
       <c r="G15" s="4"/>
       <c r="H15" s="2" t="s">
-        <v>36</v>
+        <v>44</v>
       </c>
       <c r="I15" s="10" t="s">
-        <v>29</v>
+        <v>46</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="16" customHeight="1" ht="17.25">
       <c r="A16" s="1" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="B16" s="1" t="s">
         <v>10</v>
@@ -4052,24 +4082,24 @@
         <v>12</v>
       </c>
       <c r="E16" s="1" t="s">
-        <v>13</v>
+        <v>41</v>
       </c>
       <c r="F16" s="1" t="s">
-        <v>34</v>
+        <v>42</v>
       </c>
       <c r="G16" s="4" t="s">
-        <v>38</v>
+        <v>48</v>
       </c>
       <c r="H16" s="2" t="s">
-        <v>36</v>
+        <v>44</v>
       </c>
       <c r="I16" s="10" t="s">
-        <v>29</v>
+        <v>46</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="17" customHeight="1" ht="17.25">
       <c r="A17" s="1" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="B17" s="1" t="s">
         <v>10</v>
@@ -4081,22 +4111,22 @@
         <v>12</v>
       </c>
       <c r="E17" s="1" t="s">
-        <v>13</v>
+        <v>41</v>
       </c>
       <c r="F17" s="1" t="s">
-        <v>34</v>
+        <v>42</v>
       </c>
       <c r="G17" s="1" t="s">
-        <v>35</v>
+        <v>43</v>
       </c>
       <c r="H17" s="7"/>
       <c r="I17" s="10" t="s">
-        <v>29</v>
+        <v>46</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="18" customHeight="1" ht="17.25">
       <c r="A18" s="1" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="B18" s="1" t="s">
         <v>10</v>
@@ -4108,19 +4138,19 @@
         <v>12</v>
       </c>
       <c r="E18" s="1" t="s">
-        <v>13</v>
+        <v>41</v>
       </c>
       <c r="F18" s="1" t="s">
-        <v>34</v>
+        <v>42</v>
       </c>
       <c r="G18" s="1" t="s">
-        <v>35</v>
+        <v>43</v>
       </c>
       <c r="H18" s="8" t="s">
-        <v>39</v>
+        <v>49</v>
       </c>
       <c r="I18" s="10" t="s">
-        <v>29</v>
+        <v>46</v>
       </c>
     </row>
   </sheetData>
@@ -4133,25 +4163,25 @@
   <sheetPr>
     <outlinePr summaryBelow="0"/>
   </sheetPr>
-  <dimension ref="A1:J18"/>
+  <dimension ref="A1:J20"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView workbookViewId="0" tabSelected="1"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" style="14" width="12.43357142857143" customWidth="1" bestFit="1"/>
-    <col min="2" max="2" style="14" width="12.43357142857143" customWidth="1" bestFit="1"/>
-    <col min="3" max="3" style="15" width="12.43357142857143" customWidth="1" bestFit="1"/>
-    <col min="4" max="4" style="14" width="12.43357142857143" customWidth="1" bestFit="1"/>
-    <col min="5" max="5" style="14" width="12.43357142857143" customWidth="1" bestFit="1"/>
-    <col min="6" max="6" style="16" width="7.147857142857143" customWidth="1" bestFit="1"/>
-    <col min="7" max="7" style="14" width="6.147857142857143" customWidth="1" bestFit="1"/>
-    <col min="8" max="8" style="16" width="4.576428571428571" customWidth="1" bestFit="1"/>
-    <col min="9" max="9" style="14" width="39.43357142857143" customWidth="1" bestFit="1"/>
-    <col min="10" max="10" style="14" width="39.43357142857143" customWidth="1" bestFit="1"/>
+    <col min="1" max="1" style="15" width="12.43357142857143" customWidth="1" bestFit="1"/>
+    <col min="2" max="2" style="15" width="12.43357142857143" customWidth="1" bestFit="1"/>
+    <col min="3" max="3" style="16" width="12.43357142857143" customWidth="1" bestFit="1"/>
+    <col min="4" max="4" style="15" width="12.43357142857143" customWidth="1" bestFit="1"/>
+    <col min="5" max="5" style="15" width="12.43357142857143" customWidth="1" bestFit="1"/>
+    <col min="6" max="6" style="17" width="9.862142857142858" customWidth="1" bestFit="1"/>
+    <col min="7" max="7" style="15" width="8.719285714285713" customWidth="1" bestFit="1"/>
+    <col min="8" max="8" style="17" width="6.576428571428571" customWidth="1" bestFit="1"/>
+    <col min="9" max="9" style="15" width="5.147857142857143" customWidth="1" bestFit="1"/>
+    <col min="10" max="10" style="15" width="39.43357142857143" customWidth="1" bestFit="1"/>
   </cols>
   <sheetData>
-    <row x14ac:dyDescent="0.25" r="1" customHeight="1" ht="17.25">
+    <row x14ac:dyDescent="0.25" r="1" customHeight="1" ht="18.75">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -4183,7 +4213,7 @@
         <v>9</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="2" customHeight="1" ht="17.25">
+    <row x14ac:dyDescent="0.25" r="2" customHeight="1" ht="21.75">
       <c r="A2" s="4"/>
       <c r="B2" s="1" t="s">
         <v>10</v>
@@ -4198,18 +4228,20 @@
         <v>13</v>
       </c>
       <c r="F2" s="5"/>
-      <c r="G2" s="6"/>
+      <c r="G2" s="5">
+        <v>30</v>
+      </c>
       <c r="H2" s="5"/>
-      <c r="I2" s="6" t="s">
+      <c r="I2" s="5">
+        <v>1</v>
+      </c>
+      <c r="J2" s="6" t="s">
         <v>14</v>
       </c>
-      <c r="J2" s="6" t="s">
+    </row>
+    <row x14ac:dyDescent="0.25" r="3" customHeight="1" ht="21.75">
+      <c r="A3" s="4" t="s">
         <v>15</v>
-      </c>
-    </row>
-    <row x14ac:dyDescent="0.25" r="3" customHeight="1" ht="17.25">
-      <c r="A3" s="4" t="s">
-        <v>16</v>
       </c>
       <c r="B3" s="1" t="s">
         <v>10</v>
@@ -4224,18 +4256,20 @@
         <v>13</v>
       </c>
       <c r="F3" s="5"/>
-      <c r="G3" s="6"/>
+      <c r="G3" s="5">
+        <v>30</v>
+      </c>
       <c r="H3" s="5"/>
-      <c r="I3" s="6" t="s">
-        <v>14</v>
+      <c r="I3" s="5">
+        <v>1</v>
       </c>
       <c r="J3" s="6" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row x14ac:dyDescent="0.25" r="4" customHeight="1" ht="21.75">
+      <c r="A4" s="1" t="s">
         <v>17</v>
-      </c>
-    </row>
-    <row x14ac:dyDescent="0.25" r="4" customHeight="1" ht="17.25">
-      <c r="A4" s="1" t="s">
-        <v>18</v>
       </c>
       <c r="B4" s="4"/>
       <c r="C4" s="2" t="s">
@@ -4248,18 +4282,20 @@
         <v>13</v>
       </c>
       <c r="F4" s="5"/>
-      <c r="G4" s="6"/>
+      <c r="G4" s="5">
+        <v>30</v>
+      </c>
       <c r="H4" s="5"/>
-      <c r="I4" s="6" t="s">
-        <v>14</v>
+      <c r="I4" s="5">
+        <v>1</v>
       </c>
       <c r="J4" s="6" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row x14ac:dyDescent="0.25" r="5" customHeight="1" ht="17.25">
+        <v>18</v>
+      </c>
+    </row>
+    <row x14ac:dyDescent="0.25" r="5" customHeight="1" ht="21.75">
       <c r="A5" s="1" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="B5" s="4" t="s">
         <v>19</v>
@@ -4274,18 +4310,20 @@
         <v>13</v>
       </c>
       <c r="F5" s="5"/>
-      <c r="G5" s="6"/>
+      <c r="G5" s="5">
+        <v>30</v>
+      </c>
       <c r="H5" s="5"/>
-      <c r="I5" s="6" t="s">
-        <v>14</v>
+      <c r="I5" s="5">
+        <v>1</v>
       </c>
       <c r="J5" s="6" t="s">
         <v>20</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="6" customHeight="1" ht="17.25">
+    <row x14ac:dyDescent="0.25" r="6" customHeight="1" ht="21.75">
       <c r="A6" s="1" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="B6" s="4" t="s">
         <v>21</v>
@@ -4300,18 +4338,20 @@
         <v>13</v>
       </c>
       <c r="F6" s="5"/>
-      <c r="G6" s="6"/>
+      <c r="G6" s="5">
+        <v>30</v>
+      </c>
       <c r="H6" s="5"/>
-      <c r="I6" s="6" t="s">
-        <v>14</v>
+      <c r="I6" s="5">
+        <v>1</v>
       </c>
       <c r="J6" s="6" t="s">
         <v>22</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="7" customHeight="1" ht="17.25">
+    <row x14ac:dyDescent="0.25" r="7" customHeight="1" ht="21.75">
       <c r="A7" s="1" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="B7" s="1" t="s">
         <v>10</v>
@@ -4324,24 +4364,26 @@
         <v>13</v>
       </c>
       <c r="F7" s="5"/>
-      <c r="G7" s="6"/>
+      <c r="G7" s="5">
+        <v>30</v>
+      </c>
       <c r="H7" s="5"/>
-      <c r="I7" s="6" t="s">
-        <v>14</v>
+      <c r="I7" s="5">
+        <v>1</v>
       </c>
       <c r="J7" s="6" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row x14ac:dyDescent="0.25" r="8" customHeight="1" ht="17.25">
+        <v>23</v>
+      </c>
+    </row>
+    <row x14ac:dyDescent="0.25" r="8" customHeight="1" ht="21.75">
       <c r="A8" s="1" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="B8" s="1" t="s">
         <v>10</v>
       </c>
       <c r="C8" s="8" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="D8" s="1" t="s">
         <v>12</v>
@@ -4350,24 +4392,26 @@
         <v>13</v>
       </c>
       <c r="F8" s="5"/>
-      <c r="G8" s="6"/>
+      <c r="G8" s="5">
+        <v>30</v>
+      </c>
       <c r="H8" s="5"/>
-      <c r="I8" s="6" t="s">
-        <v>14</v>
+      <c r="I8" s="5">
+        <v>1</v>
       </c>
       <c r="J8" s="6" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row x14ac:dyDescent="0.25" r="9" customHeight="1" ht="17.25">
+        <v>25</v>
+      </c>
+    </row>
+    <row x14ac:dyDescent="0.25" r="9" customHeight="1" ht="21.75">
       <c r="A9" s="1" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="B9" s="1" t="s">
         <v>10</v>
       </c>
       <c r="C9" s="8" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="D9" s="1" t="s">
         <v>12</v>
@@ -4376,18 +4420,20 @@
         <v>13</v>
       </c>
       <c r="F9" s="5"/>
-      <c r="G9" s="6"/>
+      <c r="G9" s="5">
+        <v>30</v>
+      </c>
       <c r="H9" s="5"/>
-      <c r="I9" s="6" t="s">
-        <v>14</v>
+      <c r="I9" s="5">
+        <v>1</v>
       </c>
       <c r="J9" s="6" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row x14ac:dyDescent="0.25" r="10" customHeight="1" ht="17.25">
+        <v>25</v>
+      </c>
+    </row>
+    <row x14ac:dyDescent="0.25" r="10" customHeight="1" ht="21.75">
       <c r="A10" s="1" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="B10" s="1" t="s">
         <v>10</v>
@@ -4400,18 +4446,20 @@
         <v>13</v>
       </c>
       <c r="F10" s="5"/>
-      <c r="G10" s="6"/>
+      <c r="G10" s="5">
+        <v>30</v>
+      </c>
       <c r="H10" s="5"/>
-      <c r="I10" s="6" t="s">
-        <v>14</v>
+      <c r="I10" s="5">
+        <v>1</v>
       </c>
       <c r="J10" s="6" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row x14ac:dyDescent="0.25" r="11" customHeight="1" ht="17.25">
+        <v>27</v>
+      </c>
+    </row>
+    <row x14ac:dyDescent="0.25" r="11" customHeight="1" ht="21.75">
       <c r="A11" s="1" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="B11" s="1" t="s">
         <v>10</v>
@@ -4420,24 +4468,26 @@
         <v>11</v>
       </c>
       <c r="D11" s="4" t="s">
-        <v>26</v>
+        <v>28</v>
       </c>
       <c r="E11" s="1" t="s">
         <v>13</v>
       </c>
       <c r="F11" s="5"/>
-      <c r="G11" s="6"/>
+      <c r="G11" s="5">
+        <v>30</v>
+      </c>
       <c r="H11" s="5"/>
-      <c r="I11" s="6" t="s">
-        <v>14</v>
+      <c r="I11" s="5">
+        <v>1</v>
       </c>
       <c r="J11" s="6" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row x14ac:dyDescent="0.25" r="12" customHeight="1" ht="17.25">
+        <v>29</v>
+      </c>
+    </row>
+    <row x14ac:dyDescent="0.25" r="12" customHeight="1" ht="21.75">
       <c r="A12" s="1" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="B12" s="1" t="s">
         <v>10</v>
@@ -4450,18 +4500,20 @@
       </c>
       <c r="E12" s="4"/>
       <c r="F12" s="5"/>
-      <c r="G12" s="6"/>
+      <c r="G12" s="5">
+        <v>30</v>
+      </c>
       <c r="H12" s="5"/>
-      <c r="I12" s="6" t="s">
-        <v>14</v>
+      <c r="I12" s="5">
+        <v>1</v>
       </c>
       <c r="J12" s="6" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row x14ac:dyDescent="0.25" r="13" customHeight="1" ht="17.25">
+        <v>30</v>
+      </c>
+    </row>
+    <row x14ac:dyDescent="0.25" r="13" customHeight="1" ht="21.75">
       <c r="A13" s="1" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="B13" s="1" t="s">
         <v>10</v>
@@ -4473,21 +4525,23 @@
         <v>12</v>
       </c>
       <c r="E13" s="4" t="s">
-        <v>28</v>
+        <v>31</v>
       </c>
       <c r="F13" s="9"/>
-      <c r="G13" s="10"/>
+      <c r="G13" s="5">
+        <v>30</v>
+      </c>
       <c r="H13" s="9"/>
-      <c r="I13" s="6" t="s">
-        <v>14</v>
+      <c r="I13" s="5">
+        <v>1</v>
       </c>
       <c r="J13" s="10" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row x14ac:dyDescent="0.25" r="14" customHeight="1" ht="17.25">
+        <v>32</v>
+      </c>
+    </row>
+    <row x14ac:dyDescent="0.25" r="14" customHeight="1" ht="20.25">
       <c r="A14" s="1" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="B14" s="1" t="s">
         <v>10</v>
@@ -4502,20 +4556,22 @@
         <v>13</v>
       </c>
       <c r="F14" s="11">
-        <v>0</v>
-      </c>
-      <c r="G14" s="12"/>
-      <c r="H14" s="13"/>
-      <c r="I14" s="6" t="s">
-        <v>14</v>
-      </c>
-      <c r="J14" s="12" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row x14ac:dyDescent="0.25" r="15" customHeight="1" ht="17.25">
+        <v>1</v>
+      </c>
+      <c r="G14" s="5">
+        <v>30</v>
+      </c>
+      <c r="H14" s="12"/>
+      <c r="I14" s="5">
+        <v>1</v>
+      </c>
+      <c r="J14" s="13" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row x14ac:dyDescent="0.25" r="15" customHeight="1" ht="21.75">
       <c r="A15" s="1" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="B15" s="1" t="s">
         <v>10</v>
@@ -4529,21 +4585,23 @@
       <c r="E15" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="F15" s="9"/>
-      <c r="G15" s="10"/>
-      <c r="H15" s="11">
+      <c r="F15" s="11">
         <v>0</v>
       </c>
-      <c r="I15" s="6" t="s">
-        <v>14</v>
-      </c>
-      <c r="J15" s="10" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row x14ac:dyDescent="0.25" r="16" customHeight="1" ht="17.25">
+      <c r="G15" s="5">
+        <v>30</v>
+      </c>
+      <c r="H15" s="12"/>
+      <c r="I15" s="5">
+        <v>1</v>
+      </c>
+      <c r="J15" s="14" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row x14ac:dyDescent="0.25" r="16" customHeight="1" ht="20.25">
       <c r="A16" s="1" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="B16" s="1" t="s">
         <v>10</v>
@@ -4557,19 +4615,19 @@
       <c r="E16" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="F16" s="9"/>
-      <c r="G16" s="10"/>
-      <c r="H16" s="9"/>
-      <c r="I16" s="12" t="s">
-        <v>30</v>
-      </c>
-      <c r="J16" s="10" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row x14ac:dyDescent="0.25" r="17" customHeight="1" ht="17.25">
+      <c r="F16" s="11"/>
+      <c r="G16" s="6"/>
+      <c r="H16" s="12"/>
+      <c r="I16" s="5">
+        <v>1</v>
+      </c>
+      <c r="J16" s="13" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row x14ac:dyDescent="0.25" r="17" customHeight="1" ht="21">
       <c r="A17" s="1" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="B17" s="1" t="s">
         <v>10</v>
@@ -4583,19 +4641,21 @@
       <c r="E17" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="F17" s="9"/>
-      <c r="G17" s="10"/>
-      <c r="H17" s="9"/>
-      <c r="I17" s="6" t="s">
-        <v>14</v>
-      </c>
-      <c r="J17" s="10" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row x14ac:dyDescent="0.25" r="18" customHeight="1" ht="17.25">
+      <c r="F17" s="11"/>
+      <c r="G17" s="5">
+        <v>0</v>
+      </c>
+      <c r="H17" s="12"/>
+      <c r="I17" s="5">
+        <v>1</v>
+      </c>
+      <c r="J17" s="13" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row x14ac:dyDescent="0.25" r="18" customHeight="1" ht="20.25">
       <c r="A18" s="1" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="B18" s="1" t="s">
         <v>10</v>
@@ -4610,13 +4670,75 @@
         <v>13</v>
       </c>
       <c r="F18" s="9"/>
-      <c r="G18" s="10"/>
-      <c r="H18" s="9"/>
-      <c r="I18" s="6" t="s">
-        <v>14</v>
-      </c>
-      <c r="J18" s="10" t="s">
-        <v>29</v>
+      <c r="G18" s="5">
+        <v>30</v>
+      </c>
+      <c r="H18" s="11">
+        <v>1</v>
+      </c>
+      <c r="I18" s="5">
+        <v>1</v>
+      </c>
+      <c r="J18" s="13" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row x14ac:dyDescent="0.25" r="19" customHeight="1" ht="21.75">
+      <c r="A19" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="B19" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="C19" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="D19" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="E19" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="F19" s="9"/>
+      <c r="G19" s="5">
+        <v>30</v>
+      </c>
+      <c r="H19" s="11">
+        <v>0</v>
+      </c>
+      <c r="I19" s="5">
+        <v>1</v>
+      </c>
+      <c r="J19" s="10" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row x14ac:dyDescent="0.25" r="20" customHeight="1" ht="21">
+      <c r="A20" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="B20" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="C20" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="D20" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="E20" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="F20" s="9"/>
+      <c r="G20" s="5">
+        <v>30</v>
+      </c>
+      <c r="H20" s="9"/>
+      <c r="I20" s="12">
+        <v>0</v>
+      </c>
+      <c r="J20" s="10" t="s">
+        <v>36</v>
       </c>
     </row>
   </sheetData>

--- a/test_data/Stylish_TestCase.xlsx
+++ b/test_data/Stylish_TestCase.xlsx
@@ -4,7 +4,7 @@
   <fileVersion rupBuild="9303" lowestEdited="5" lastEdited="5" appName="xl"/>
   <workbookPr/>
   <bookViews>
-    <workbookView xWindow="480" yWindow="60" windowWidth="18195" windowHeight="8505" activeTab="6"/>
+    <workbookView xWindow="480" yWindow="60" windowWidth="18195" windowHeight="8505" activeTab="3"/>
   </bookViews>
   <sheets>
     <sheet r:id="rId1" sheetId="1" name="Create Product Success"/>
@@ -262,109 +262,112 @@
     <t>accessories</t>
   </si>
   <si>
+    <t>連衣裙_kathy</t>
+  </si>
+  <si>
+    <t>Description is required.</t>
+  </si>
+  <si>
+    <t>description cannot more than 255 characters.</t>
+  </si>
+  <si>
+    <t>Price is required.</t>
+  </si>
+  <si>
+    <t>text</t>
+  </si>
+  <si>
+    <t>Price should be postive number.</t>
+  </si>
+  <si>
+    <t>Texture is required.</t>
+  </si>
+  <si>
+    <t>128 chars</t>
+  </si>
+  <si>
+    <t>texture cannot more than 127 characters.</t>
+  </si>
+  <si>
+    <t>Wash is required.</t>
+  </si>
+  <si>
+    <t>wash cannot more than 127 characters.</t>
+  </si>
+  <si>
+    <t>Place of Production is required.</t>
+  </si>
+  <si>
+    <t>place cannot more than 127 characters.</t>
+  </si>
+  <si>
+    <t>Note is required.</t>
+  </si>
+  <si>
+    <t>note cannot more than 127 characters.</t>
+  </si>
+  <si>
+    <t>Colors is required.</t>
+  </si>
+  <si>
+    <t>Sizes is required.</t>
+  </si>
+  <si>
+    <t>Story is required.</t>
+  </si>
+  <si>
+    <t>Main Image is required.</t>
+  </si>
+  <si>
+    <t>Other Images is required.</t>
+  </si>
+  <si>
+    <t>Category is required.</t>
+  </si>
+  <si>
+    <t>Category should be 'men', 'women' or 'accessories' Only</t>
+  </si>
+  <si>
+    <t>Color ID should be '1-7' Only</t>
+  </si>
+  <si>
+    <t>A</t>
+  </si>
+  <si>
+    <t>Size should be 'S', 'M', 'L', 'XL', 'F' Only</t>
+  </si>
+  <si>
+    <t>Colors</t>
+  </si>
+  <si>
+    <t>Women</t>
+  </si>
+  <si>
+    <t>白色</t>
+  </si>
+  <si>
+    <t>F</t>
+  </si>
+  <si>
+    <t>Men</t>
+  </si>
+  <si>
+    <t>亮綠, 淺灰</t>
+  </si>
+  <si>
+    <t>L, XL</t>
+  </si>
+  <si>
+    <t>Accessories</t>
+  </si>
+  <si>
     <t>連衣裙</t>
   </si>
   <si>
-    <t>Description is required.</t>
-  </si>
-  <si>
-    <t>description cannot more than 255 characters.</t>
-  </si>
-  <si>
-    <t>Price is required.</t>
-  </si>
-  <si>
-    <t>text</t>
-  </si>
-  <si>
-    <t>Price should be postive number.</t>
-  </si>
-  <si>
-    <t>Texture is required.</t>
-  </si>
-  <si>
-    <t>128 chars</t>
-  </si>
-  <si>
-    <t>texture cannot more than 127 characters.</t>
-  </si>
-  <si>
-    <t>Wash is required.</t>
-  </si>
-  <si>
-    <t>wash cannot more than 127 characters.</t>
-  </si>
-  <si>
-    <t>Place of Production is required.</t>
-  </si>
-  <si>
-    <t>place cannot more than 127 characters.</t>
-  </si>
-  <si>
-    <t>Note is required.</t>
-  </si>
-  <si>
-    <t>note cannot more than 127 characters.</t>
-  </si>
-  <si>
-    <t>Colors is required.</t>
-  </si>
-  <si>
-    <t>Sizes is required.</t>
-  </si>
-  <si>
-    <t>Story is required.</t>
-  </si>
-  <si>
-    <t>Main Image is required.</t>
-  </si>
-  <si>
-    <t>Other Images is required.</t>
-  </si>
-  <si>
-    <t>Category is required.</t>
-  </si>
-  <si>
-    <t>Category should be 'men', 'women' or 'accessories' Only</t>
-  </si>
-  <si>
-    <t>Color ID should be '1-7' Only</t>
-  </si>
-  <si>
-    <t>A</t>
-  </si>
-  <si>
-    <t>Size should be 'S', 'M', 'L', 'XL', 'F' Only</t>
-  </si>
-  <si>
-    <t>Colors</t>
-  </si>
-  <si>
-    <t>Women</t>
-  </si>
-  <si>
-    <t>白色</t>
-  </si>
-  <si>
-    <t>F</t>
-  </si>
-  <si>
-    <t>Men</t>
-  </si>
-  <si>
-    <t>亮綠, 淺灰</t>
-  </si>
-  <si>
-    <t>L, XL</t>
-  </si>
-  <si>
-    <t>Accessories</t>
-  </si>
-  <si>
     <t>全選</t>
   </si>
   <si>
-    <t>連身裙</t>
+    <t>連身裙_Kathy</t>
   </si>
   <si>
     <t>棉質</t>
@@ -386,9 +389,6 @@
   </si>
   <si>
     <t>S,M,L,XL,F</t>
-  </si>
-  <si>
-    <t>連身裙_Kathy</t>
   </si>
 </sst>
 </file>
@@ -396,7 +396,7 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" mc:Ignorable="x14ac">
   <numFmts count="0"/>
-  <fonts count="8" x14ac:knownFonts="1">
+  <fonts count="9" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -420,6 +420,12 @@
       <sz val="10"/>
       <color rgb="FF000000"/>
       <name val="Monospace"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
       <family val="2"/>
     </font>
     <font>
@@ -543,7 +549,7 @@
     <xf xfId="0" numFmtId="3" applyNumberFormat="1" borderId="2" applyBorder="1" fontId="2" applyFont="1" fillId="3" applyFill="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf xfId="0" numFmtId="0" borderId="0" fontId="0" fillId="0" applyAlignment="1">
+    <xf xfId="0" numFmtId="0" borderId="1" applyBorder="1" fontId="4" applyFont="1" fillId="0" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
     <xf xfId="0" numFmtId="0" borderId="2" applyBorder="1" fontId="2" applyFont="1" fillId="3" applyFill="1" applyAlignment="1">
@@ -561,13 +567,13 @@
     <xf xfId="0" numFmtId="0" borderId="2" applyBorder="1" fontId="1" applyFont="1" fillId="4" applyFill="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf xfId="0" numFmtId="0" borderId="1" applyBorder="1" fontId="4" applyFont="1" fillId="0" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
     <xf xfId="0" numFmtId="0" borderId="1" applyBorder="1" fontId="5" applyFont="1" fillId="0" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf xfId="0" numFmtId="3" applyNumberFormat="1" borderId="1" applyBorder="1" fontId="5" applyFont="1" fillId="0" applyAlignment="1">
+    <xf xfId="0" numFmtId="0" borderId="1" applyBorder="1" fontId="6" applyFont="1" fillId="0" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf xfId="0" numFmtId="3" applyNumberFormat="1" borderId="1" applyBorder="1" fontId="6" applyFont="1" fillId="0" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
     <xf xfId="0" numFmtId="3" applyNumberFormat="1" borderId="1" applyBorder="1" fontId="1" applyFont="1" fillId="0" applyAlignment="1">
@@ -576,7 +582,7 @@
     <xf xfId="0" numFmtId="0" borderId="2" applyBorder="1" fontId="1" applyFont="1" fillId="3" applyFill="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf xfId="0" numFmtId="0" borderId="2" applyBorder="1" fontId="6" applyFont="1" fillId="3" applyFill="1" applyAlignment="1">
+    <xf xfId="0" numFmtId="0" borderId="2" applyBorder="1" fontId="7" applyFont="1" fillId="3" applyFill="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
     <xf xfId="0" numFmtId="3" applyNumberFormat="1" borderId="2" applyBorder="1" fontId="1" applyFont="1" fillId="2" applyFill="1" applyAlignment="1">
@@ -585,7 +591,7 @@
     <xf xfId="0" numFmtId="3" applyNumberFormat="1" borderId="0" fontId="0" fillId="0" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf xfId="0" numFmtId="0" borderId="1" applyBorder="1" fontId="7" applyFont="1" fillId="0" applyAlignment="1">
+    <xf xfId="0" numFmtId="0" borderId="1" applyBorder="1" fontId="8" applyFont="1" fillId="0" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
     <xf xfId="0" numFmtId="0" borderId="0" fontId="0" fillId="0" applyAlignment="1">
@@ -969,7 +975,7 @@
         <v>106</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>122</v>
+        <v>115</v>
       </c>
       <c r="C2" s="1" t="s">
         <v>67</v>
@@ -978,7 +984,7 @@
         <v>100</v>
       </c>
       <c r="E2" s="1" t="s">
-        <v>115</v>
+        <v>116</v>
       </c>
       <c r="F2" s="1" t="s">
         <v>69</v>
@@ -1008,7 +1014,7 @@
         <v>75</v>
       </c>
       <c r="O2" s="1" t="s">
-        <v>116</v>
+        <v>117</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="3" customHeight="1" ht="21.75">
@@ -1016,25 +1022,25 @@
         <v>109</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>117</v>
+        <v>118</v>
       </c>
       <c r="C3" s="1" t="s">
-        <v>117</v>
+        <v>118</v>
       </c>
       <c r="D3" s="22">
         <v>0</v>
       </c>
       <c r="E3" s="1" t="s">
-        <v>117</v>
+        <v>118</v>
       </c>
       <c r="F3" s="1" t="s">
-        <v>117</v>
+        <v>118</v>
       </c>
       <c r="G3" s="1" t="s">
-        <v>117</v>
+        <v>118</v>
       </c>
       <c r="H3" s="1" t="s">
-        <v>117</v>
+        <v>118</v>
       </c>
       <c r="I3" s="1" t="s">
         <v>110</v>
@@ -1043,7 +1049,7 @@
         <v>111</v>
       </c>
       <c r="K3" s="1" t="s">
-        <v>117</v>
+        <v>118</v>
       </c>
       <c r="L3" s="1" t="s">
         <v>75</v>
@@ -1053,7 +1059,7 @@
         <v>75</v>
       </c>
       <c r="O3" s="1" t="s">
-        <v>116</v>
+        <v>117</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="4" customHeight="1" ht="21.75">
@@ -1061,31 +1067,31 @@
         <v>112</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>118</v>
+        <v>119</v>
       </c>
       <c r="C4" s="1" t="s">
-        <v>118</v>
+        <v>119</v>
       </c>
       <c r="D4" s="22">
         <v>99999</v>
       </c>
       <c r="E4" s="1" t="s">
-        <v>119</v>
+        <v>120</v>
       </c>
       <c r="F4" s="1" t="s">
-        <v>119</v>
+        <v>120</v>
       </c>
       <c r="G4" s="1" t="s">
-        <v>119</v>
+        <v>120</v>
       </c>
       <c r="H4" s="1" t="s">
-        <v>119</v>
+        <v>120</v>
       </c>
       <c r="I4" s="1" t="s">
-        <v>113</v>
+        <v>114</v>
       </c>
       <c r="J4" s="1" t="s">
-        <v>113</v>
+        <v>114</v>
       </c>
       <c r="K4" s="1" t="s">
         <v>74</v>
@@ -1098,7 +1104,7 @@
       </c>
       <c r="N4" s="28"/>
       <c r="O4" s="1" t="s">
-        <v>116</v>
+        <v>117</v>
       </c>
     </row>
   </sheetData>
@@ -1134,7 +1140,7 @@
     <col min="15" max="15" style="15" width="12.43357142857143" customWidth="1" bestFit="1"/>
   </cols>
   <sheetData>
-    <row x14ac:dyDescent="0.25" r="1" customHeight="1" ht="18.75">
+    <row x14ac:dyDescent="0.25" r="1" customHeight="1" ht="19.5">
       <c r="A1" s="1" t="s">
         <v>52</v>
       </c>
@@ -1184,7 +1190,7 @@
         <v>66</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>114</v>
+        <v>115</v>
       </c>
       <c r="C2" s="1" t="s">
         <v>67</v>
@@ -1193,7 +1199,7 @@
         <v>100</v>
       </c>
       <c r="E2" s="1" t="s">
-        <v>115</v>
+        <v>116</v>
       </c>
       <c r="F2" s="1" t="s">
         <v>69</v>
@@ -1223,33 +1229,33 @@
         <v>75</v>
       </c>
       <c r="O2" s="1" t="s">
-        <v>116</v>
-      </c>
-    </row>
-    <row x14ac:dyDescent="0.25" r="3" customHeight="1" ht="18.75">
+        <v>117</v>
+      </c>
+    </row>
+    <row x14ac:dyDescent="0.25" r="3" customHeight="1" ht="19.5">
       <c r="A3" s="1" t="s">
         <v>77</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>117</v>
+        <v>118</v>
       </c>
       <c r="C3" s="1" t="s">
-        <v>117</v>
+        <v>118</v>
       </c>
       <c r="D3" s="22">
         <v>0</v>
       </c>
       <c r="E3" s="1" t="s">
-        <v>117</v>
+        <v>118</v>
       </c>
       <c r="F3" s="1" t="s">
-        <v>117</v>
+        <v>118</v>
       </c>
       <c r="G3" s="1" t="s">
-        <v>117</v>
+        <v>118</v>
       </c>
       <c r="H3" s="1" t="s">
-        <v>117</v>
+        <v>118</v>
       </c>
       <c r="I3" s="3" t="s">
         <v>72</v>
@@ -1258,7 +1264,7 @@
         <v>73</v>
       </c>
       <c r="K3" s="1" t="s">
-        <v>117</v>
+        <v>118</v>
       </c>
       <c r="L3" s="1" t="s">
         <v>75</v>
@@ -1268,7 +1274,7 @@
         <v>75</v>
       </c>
       <c r="O3" s="1" t="s">
-        <v>116</v>
+        <v>117</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="4" customHeight="1" ht="18.75">
@@ -1276,31 +1282,31 @@
         <v>79</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>118</v>
+        <v>119</v>
       </c>
       <c r="C4" s="1" t="s">
-        <v>118</v>
+        <v>119</v>
       </c>
       <c r="D4" s="22">
         <v>99999</v>
       </c>
       <c r="E4" s="1" t="s">
-        <v>119</v>
+        <v>120</v>
       </c>
       <c r="F4" s="1" t="s">
-        <v>119</v>
+        <v>120</v>
       </c>
       <c r="G4" s="1" t="s">
-        <v>119</v>
+        <v>120</v>
       </c>
       <c r="H4" s="1" t="s">
-        <v>119</v>
+        <v>120</v>
       </c>
       <c r="I4" s="3" t="s">
-        <v>120</v>
+        <v>121</v>
       </c>
       <c r="J4" s="1" t="s">
-        <v>121</v>
+        <v>122</v>
       </c>
       <c r="K4" s="1" t="s">
         <v>74</v>
@@ -1313,7 +1319,7 @@
       </c>
       <c r="N4" s="28"/>
       <c r="O4" s="1" t="s">
-        <v>116</v>
+        <v>117</v>
       </c>
     </row>
   </sheetData>
@@ -1493,7 +1499,7 @@
         <v>112</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>80</v>
+        <v>113</v>
       </c>
       <c r="C4" s="4"/>
       <c r="D4" s="22">
@@ -1512,10 +1518,10 @@
         <v>71</v>
       </c>
       <c r="I4" s="1" t="s">
-        <v>113</v>
+        <v>114</v>
       </c>
       <c r="J4" s="1" t="s">
-        <v>113</v>
+        <v>114</v>
       </c>
       <c r="K4" s="1" t="s">
         <v>74</v>
@@ -1538,7 +1544,7 @@
         <v>106</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>80</v>
+        <v>113</v>
       </c>
       <c r="C5" s="4" t="s">
         <v>28</v>
@@ -1585,7 +1591,7 @@
         <v>106</v>
       </c>
       <c r="B6" s="1" t="s">
-        <v>80</v>
+        <v>113</v>
       </c>
       <c r="C6" s="1" t="s">
         <v>67</v>
@@ -1630,7 +1636,7 @@
         <v>106</v>
       </c>
       <c r="B7" s="1" t="s">
-        <v>80</v>
+        <v>113</v>
       </c>
       <c r="C7" s="1" t="s">
         <v>67</v>
@@ -1677,7 +1683,7 @@
         <v>106</v>
       </c>
       <c r="B8" s="1" t="s">
-        <v>80</v>
+        <v>113</v>
       </c>
       <c r="C8" s="1" t="s">
         <v>67</v>
@@ -1724,7 +1730,7 @@
         <v>106</v>
       </c>
       <c r="B9" s="1" t="s">
-        <v>80</v>
+        <v>113</v>
       </c>
       <c r="C9" s="1" t="s">
         <v>67</v>
@@ -1769,7 +1775,7 @@
         <v>106</v>
       </c>
       <c r="B10" s="1" t="s">
-        <v>80</v>
+        <v>113</v>
       </c>
       <c r="C10" s="1" t="s">
         <v>67</v>
@@ -1816,7 +1822,7 @@
         <v>106</v>
       </c>
       <c r="B11" s="1" t="s">
-        <v>80</v>
+        <v>113</v>
       </c>
       <c r="C11" s="1" t="s">
         <v>67</v>
@@ -1861,7 +1867,7 @@
         <v>106</v>
       </c>
       <c r="B12" s="1" t="s">
-        <v>80</v>
+        <v>113</v>
       </c>
       <c r="C12" s="1" t="s">
         <v>67</v>
@@ -1908,7 +1914,7 @@
         <v>106</v>
       </c>
       <c r="B13" s="1" t="s">
-        <v>80</v>
+        <v>113</v>
       </c>
       <c r="C13" s="1" t="s">
         <v>67</v>
@@ -1953,7 +1959,7 @@
         <v>106</v>
       </c>
       <c r="B14" s="1" t="s">
-        <v>80</v>
+        <v>113</v>
       </c>
       <c r="C14" s="1" t="s">
         <v>67</v>
@@ -2000,7 +2006,7 @@
         <v>106</v>
       </c>
       <c r="B15" s="1" t="s">
-        <v>80</v>
+        <v>113</v>
       </c>
       <c r="C15" s="1" t="s">
         <v>67</v>
@@ -2045,7 +2051,7 @@
         <v>106</v>
       </c>
       <c r="B16" s="1" t="s">
-        <v>80</v>
+        <v>113</v>
       </c>
       <c r="C16" s="1" t="s">
         <v>67</v>
@@ -2092,7 +2098,7 @@
         <v>106</v>
       </c>
       <c r="B17" s="1" t="s">
-        <v>80</v>
+        <v>113</v>
       </c>
       <c r="C17" s="1" t="s">
         <v>67</v>
@@ -2137,7 +2143,7 @@
         <v>106</v>
       </c>
       <c r="B18" s="1" t="s">
-        <v>80</v>
+        <v>113</v>
       </c>
       <c r="C18" s="1" t="s">
         <v>67</v>
@@ -2182,7 +2188,7 @@
         <v>106</v>
       </c>
       <c r="B19" s="1" t="s">
-        <v>80</v>
+        <v>113</v>
       </c>
       <c r="C19" s="1" t="s">
         <v>67</v>
@@ -2227,7 +2233,7 @@
         <v>106</v>
       </c>
       <c r="B20" s="1" t="s">
-        <v>80</v>
+        <v>113</v>
       </c>
       <c r="C20" s="1" t="s">
         <v>67</v>
@@ -2272,7 +2278,7 @@
         <v>106</v>
       </c>
       <c r="B21" s="1" t="s">
-        <v>80</v>
+        <v>113</v>
       </c>
       <c r="C21" s="1" t="s">
         <v>67</v>
@@ -2322,7 +2328,7 @@
   </sheetPr>
   <dimension ref="A1:O25"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView workbookViewId="0" tabSelected="1"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
@@ -4165,7 +4171,7 @@
   </sheetPr>
   <dimension ref="A1:J20"/>
   <sheetViews>
-    <sheetView workbookViewId="0" tabSelected="1"/>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
@@ -4175,9 +4181,9 @@
     <col min="4" max="4" style="15" width="12.43357142857143" customWidth="1" bestFit="1"/>
     <col min="5" max="5" style="15" width="12.43357142857143" customWidth="1" bestFit="1"/>
     <col min="6" max="6" style="17" width="9.862142857142858" customWidth="1" bestFit="1"/>
-    <col min="7" max="7" style="15" width="8.719285714285713" customWidth="1" bestFit="1"/>
+    <col min="7" max="7" style="17" width="8.719285714285713" customWidth="1" bestFit="1"/>
     <col min="8" max="8" style="17" width="6.576428571428571" customWidth="1" bestFit="1"/>
-    <col min="9" max="9" style="15" width="5.147857142857143" customWidth="1" bestFit="1"/>
+    <col min="9" max="9" style="17" width="5.147857142857143" customWidth="1" bestFit="1"/>
     <col min="10" max="10" style="15" width="39.43357142857143" customWidth="1" bestFit="1"/>
   </cols>
   <sheetData>
@@ -4200,13 +4206,13 @@
       <c r="F1" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="G1" s="1" t="s">
+      <c r="G1" s="3" t="s">
         <v>6</v>
       </c>
       <c r="H1" s="3" t="s">
         <v>7</v>
       </c>
-      <c r="I1" s="1" t="s">
+      <c r="I1" s="3" t="s">
         <v>8</v>
       </c>
       <c r="J1" s="1" t="s">
@@ -4616,7 +4622,7 @@
         <v>13</v>
       </c>
       <c r="F16" s="11"/>
-      <c r="G16" s="6"/>
+      <c r="G16" s="5"/>
       <c r="H16" s="12"/>
       <c r="I16" s="5">
         <v>1</v>
